--- a/data/soil_respiration_module_data.xlsx
+++ b/data/soil_respiration_module_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlperry/Documents/R Projects/Eddie_project/eddie_soil_respiration/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74666D0-73F5-6E4A-B0D7-BC61E6BECF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C07D4F4-DC1F-574E-B656-865B89E7E547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="25660" windowHeight="15860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="25660" windowHeight="15860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Citations" sheetId="6" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>soil_moisture_pct</t>
   </si>
   <si>
-    <t>respirationum_co2_m2_second</t>
-  </si>
-  <si>
     <t>hour</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   <si>
     <t>soil_temp_7_5_cm_c</t>
   </si>
+  <si>
+    <t>respiration_um_co2_m2_second</t>
+  </si>
 </sst>
 </file>
 
@@ -99,9 +99,16 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -162,22 +169,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,15 +570,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7964"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B175" sqref="B175"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="248" max="248" width="9.83203125" customWidth="1"/>
@@ -958,8 +965,8 @@
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>8</v>
+      <c r="B1" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>6</v>
@@ -972,7 +979,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>1.2279</v>
       </c>
       <c r="C2" s="8">
@@ -988,7 +995,7 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>1.1016999999999999</v>
       </c>
       <c r="C3" s="8">
@@ -1004,7 +1011,7 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>1.0665</v>
       </c>
       <c r="C4" s="8">
@@ -1020,7 +1027,7 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>1.2141</v>
       </c>
       <c r="C5" s="8">
@@ -1036,7 +1043,7 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>1.4991000000000001</v>
       </c>
       <c r="C6" s="8">
@@ -1052,7 +1059,7 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>1.3159000000000001</v>
       </c>
       <c r="C7" s="8">
@@ -1068,7 +1075,7 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>1.1692</v>
       </c>
       <c r="C8" s="8">
@@ -1084,7 +1091,7 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>1.4141999999999999</v>
       </c>
       <c r="C9" s="8">
@@ -1100,7 +1107,7 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>1.2349000000000001</v>
       </c>
       <c r="C10" s="8">
@@ -1116,7 +1123,7 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>1.1372</v>
       </c>
       <c r="C11" s="8">
@@ -1132,7 +1139,7 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>1.1746000000000001</v>
       </c>
       <c r="C12" s="8">
@@ -1148,7 +1155,7 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>1.1521999999999999</v>
       </c>
       <c r="C13" s="8">
@@ -1164,7 +1171,7 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>0.86599999999999999</v>
       </c>
       <c r="C14" s="8">
@@ -1180,7 +1187,7 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>0.86180000000000001</v>
       </c>
       <c r="C15" s="8">
@@ -1196,7 +1203,7 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>1.6086</v>
       </c>
       <c r="C16" s="8">
@@ -1212,7 +1219,7 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>2.1928999999999998</v>
       </c>
       <c r="C17" s="8">
@@ -1228,7 +1235,7 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>1.9884999999999999</v>
       </c>
       <c r="C18" s="8">
@@ -1244,7 +1251,7 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>2.1158000000000001</v>
       </c>
       <c r="C19" s="8">
@@ -1260,7 +1267,7 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>2.3900999999999999</v>
       </c>
       <c r="C20" s="8">
@@ -1276,7 +1283,7 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>2.4434</v>
       </c>
       <c r="C21" s="8">
@@ -1292,7 +1299,7 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>2.4113000000000002</v>
       </c>
       <c r="C22" s="8">
@@ -1308,7 +1315,7 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>2.4470000000000001</v>
       </c>
       <c r="C23" s="8">
@@ -1324,7 +1331,7 @@
       <c r="A24" s="7">
         <v>25</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>2.3847</v>
       </c>
       <c r="C24" s="8">
@@ -1340,7 +1347,7 @@
       <c r="A25" s="7">
         <v>27</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <v>2.5116999999999998</v>
       </c>
       <c r="C25" s="8">
@@ -1356,7 +1363,7 @@
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>2.1585999999999999</v>
       </c>
       <c r="C26" s="8">
@@ -1372,7 +1379,7 @@
       <c r="A27" s="7">
         <v>31</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <v>2.1707000000000001</v>
       </c>
       <c r="C27" s="8">
@@ -1388,7 +1395,7 @@
       <c r="A28" s="7">
         <v>35</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <v>1.9232</v>
       </c>
       <c r="C28" s="8">
@@ -1404,7 +1411,7 @@
       <c r="A29" s="7">
         <v>36</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="14">
         <v>1.4942</v>
       </c>
       <c r="C29" s="8">
@@ -1420,7 +1427,7 @@
       <c r="A30" s="7">
         <v>37</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <v>1.8229</v>
       </c>
       <c r="C30" s="8">
@@ -1436,7 +1443,7 @@
       <c r="A31" s="7">
         <v>38</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <v>1.5904</v>
       </c>
       <c r="C31" s="8">
@@ -1452,7 +1459,7 @@
       <c r="A32" s="7">
         <v>39</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="14">
         <v>1.4763999999999999</v>
       </c>
       <c r="C32" s="8">
@@ -1468,7 +1475,7 @@
       <c r="A33" s="7">
         <v>40</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <v>1.8372999999999999</v>
       </c>
       <c r="C33" s="8">
@@ -1484,7 +1491,7 @@
       <c r="A34" s="7">
         <v>41</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <v>2.06</v>
       </c>
       <c r="C34" s="8">
@@ -1500,7 +1507,7 @@
       <c r="A35" s="7">
         <v>42</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="14">
         <v>2.0022000000000002</v>
       </c>
       <c r="C35" s="8">
@@ -1516,7 +1523,7 @@
       <c r="A36" s="7">
         <v>43</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="14">
         <v>1.8833</v>
       </c>
       <c r="C36" s="8">
@@ -1532,7 +1539,7 @@
       <c r="A37" s="7">
         <v>44</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="14">
         <v>1.5238</v>
       </c>
       <c r="C37" s="8">
@@ -1548,7 +1555,7 @@
       <c r="A38" s="7">
         <v>45</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="14">
         <v>1.7519</v>
       </c>
       <c r="C38" s="8">
@@ -1564,7 +1571,7 @@
       <c r="A39" s="7">
         <v>46</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="14">
         <v>1.9416</v>
       </c>
       <c r="C39" s="8">
@@ -1580,7 +1587,7 @@
       <c r="A40" s="7">
         <v>47</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="14">
         <v>1.9219999999999999</v>
       </c>
       <c r="C40" s="8">
@@ -1596,7 +1603,7 @@
       <c r="A41" s="7">
         <v>49</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="14">
         <v>2.3515000000000001</v>
       </c>
       <c r="C41" s="8">
@@ -1612,7 +1619,7 @@
       <c r="A42" s="7">
         <v>51</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="14">
         <v>2.0962999999999998</v>
       </c>
       <c r="C42" s="8">
@@ -1628,7 +1635,7 @@
       <c r="A43" s="7">
         <v>52</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="14">
         <v>1.5711999999999999</v>
       </c>
       <c r="C43" s="8">
@@ -1644,7 +1651,7 @@
       <c r="A44" s="7">
         <v>53</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="14">
         <v>1.2377</v>
       </c>
       <c r="C44" s="8">
@@ -1660,7 +1667,7 @@
       <c r="A45" s="7">
         <v>54</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="14">
         <v>2.266</v>
       </c>
       <c r="C45" s="8">
@@ -1676,7 +1683,7 @@
       <c r="A46" s="7">
         <v>55</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="14">
         <v>1.1500999999999999</v>
       </c>
       <c r="C46" s="8">
@@ -1692,7 +1699,7 @@
       <c r="A47" s="7">
         <v>68</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="14">
         <v>0.57410000000000005</v>
       </c>
       <c r="C47" s="8">
@@ -1708,7 +1715,7 @@
       <c r="A48" s="7">
         <v>71</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="14">
         <v>2.3351999999999999</v>
       </c>
       <c r="C48" s="8">
@@ -1724,7 +1731,7 @@
       <c r="A49" s="7">
         <v>72</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="14">
         <v>1.51</v>
       </c>
       <c r="C49" s="8">
@@ -1740,7 +1747,7 @@
       <c r="A50" s="7">
         <v>73</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="14">
         <v>1.0660000000000001</v>
       </c>
       <c r="C50" s="8">
@@ -1756,7 +1763,7 @@
       <c r="A51" s="7">
         <v>74</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="14">
         <v>0.80559999999999998</v>
       </c>
       <c r="C51" s="8">
@@ -1772,7 +1779,7 @@
       <c r="A52" s="7">
         <v>75</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="14">
         <v>0.78339999999999999</v>
       </c>
       <c r="C52" s="8">
@@ -1788,7 +1795,7 @@
       <c r="A53" s="7">
         <v>76</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="14">
         <v>0.70230000000000004</v>
       </c>
       <c r="C53" s="8">
@@ -1804,7 +1811,7 @@
       <c r="A54" s="7">
         <v>77</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="14">
         <v>0.64429999999999998</v>
       </c>
       <c r="C54" s="8">
@@ -1820,7 +1827,7 @@
       <c r="A55" s="7">
         <v>78</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="14">
         <v>0.6986</v>
       </c>
       <c r="C55" s="8">
@@ -1836,7 +1843,7 @@
       <c r="A56" s="7">
         <v>79</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="14">
         <v>0.50580000000000003</v>
       </c>
       <c r="C56" s="8">
@@ -1852,7 +1859,7 @@
       <c r="A57" s="7">
         <v>80</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="14">
         <v>0.62829999999999997</v>
       </c>
       <c r="C57" s="8">
@@ -1868,7 +1875,7 @@
       <c r="A58" s="7">
         <v>81</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="14">
         <v>0.69430000000000003</v>
       </c>
       <c r="C58" s="8">
@@ -1884,7 +1891,7 @@
       <c r="A59" s="7">
         <v>82</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="14">
         <v>0.66700000000000004</v>
       </c>
       <c r="C59" s="8">
@@ -1900,7 +1907,7 @@
       <c r="A60" s="7">
         <v>83</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="14">
         <v>0.76549999999999996</v>
       </c>
       <c r="C60" s="8">
@@ -1916,7 +1923,7 @@
       <c r="A61" s="7">
         <v>84</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="14">
         <v>0.91300000000000003</v>
       </c>
       <c r="C61" s="8">
@@ -1932,7 +1939,7 @@
       <c r="A62" s="7">
         <v>85</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="14">
         <v>1.1365000000000001</v>
       </c>
       <c r="C62" s="8">
@@ -1948,7 +1955,7 @@
       <c r="A63" s="7">
         <v>86</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B63" s="14">
         <v>0.95369999999999999</v>
       </c>
       <c r="C63" s="8">
@@ -1964,7 +1971,7 @@
       <c r="A64" s="7">
         <v>87</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B64" s="14">
         <v>0.81269999999999998</v>
       </c>
       <c r="C64" s="8">
@@ -1980,7 +1987,7 @@
       <c r="A65" s="7">
         <v>88</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B65" s="14">
         <v>0.79690000000000005</v>
       </c>
       <c r="C65" s="8">
@@ -1996,7 +2003,7 @@
       <c r="A66" s="7">
         <v>89</v>
       </c>
-      <c r="B66" s="15">
+      <c r="B66" s="14">
         <v>0.86</v>
       </c>
       <c r="C66" s="8">
@@ -2012,7 +2019,7 @@
       <c r="A67" s="7">
         <v>90</v>
       </c>
-      <c r="B67" s="15">
+      <c r="B67" s="14">
         <v>1.0266999999999999</v>
       </c>
       <c r="C67" s="8">
@@ -2028,7 +2035,7 @@
       <c r="A68" s="7">
         <v>91</v>
       </c>
-      <c r="B68" s="15">
+      <c r="B68" s="14">
         <v>1.2186999999999999</v>
       </c>
       <c r="C68" s="8">
@@ -2044,7 +2051,7 @@
       <c r="A69" s="7">
         <v>92</v>
       </c>
-      <c r="B69" s="15">
+      <c r="B69" s="14">
         <v>1.0472999999999999</v>
       </c>
       <c r="C69" s="8">
@@ -2060,7 +2067,7 @@
       <c r="A70" s="7">
         <v>93</v>
       </c>
-      <c r="B70" s="15">
+      <c r="B70" s="14">
         <v>1.0773999999999999</v>
       </c>
       <c r="C70" s="8">
@@ -2076,7 +2083,7 @@
       <c r="A71" s="7">
         <v>94</v>
       </c>
-      <c r="B71" s="15">
+      <c r="B71" s="14">
         <v>0.96299999999999997</v>
       </c>
       <c r="C71" s="8">
@@ -2092,7 +2099,7 @@
       <c r="A72" s="7">
         <v>95</v>
       </c>
-      <c r="B72" s="15">
+      <c r="B72" s="14">
         <v>0.88539999999999996</v>
       </c>
       <c r="C72" s="8">
@@ -2108,7 +2115,7 @@
       <c r="A73" s="7">
         <v>96</v>
       </c>
-      <c r="B73" s="15">
+      <c r="B73" s="14">
         <v>1.0194000000000001</v>
       </c>
       <c r="C73" s="8">
@@ -2124,7 +2131,7 @@
       <c r="A74" s="7">
         <v>97</v>
       </c>
-      <c r="B74" s="15">
+      <c r="B74" s="14">
         <v>1.3401000000000001</v>
       </c>
       <c r="C74" s="8">
@@ -2140,7 +2147,7 @@
       <c r="A75" s="7">
         <v>98</v>
       </c>
-      <c r="B75" s="15">
+      <c r="B75" s="14">
         <v>1.3794</v>
       </c>
       <c r="C75" s="8">
@@ -2156,7 +2163,7 @@
       <c r="A76" s="7">
         <v>99</v>
       </c>
-      <c r="B76" s="15">
+      <c r="B76" s="14">
         <v>1.3105</v>
       </c>
       <c r="C76" s="8">
@@ -2172,7 +2179,7 @@
       <c r="A77" s="7">
         <v>100</v>
       </c>
-      <c r="B77" s="15">
+      <c r="B77" s="14">
         <v>0.91149999999999998</v>
       </c>
       <c r="C77" s="8">
@@ -2188,7 +2195,7 @@
       <c r="A78" s="7">
         <v>101</v>
       </c>
-      <c r="B78" s="15">
+      <c r="B78" s="14">
         <v>0.89780000000000004</v>
       </c>
       <c r="C78" s="8">
@@ -2204,7 +2211,7 @@
       <c r="A79" s="7">
         <v>102</v>
       </c>
-      <c r="B79" s="15">
+      <c r="B79" s="14">
         <v>1.7382</v>
       </c>
       <c r="C79" s="8">
@@ -2220,7 +2227,7 @@
       <c r="A80" s="7">
         <v>103</v>
       </c>
-      <c r="B80" s="15">
+      <c r="B80" s="14">
         <v>1.4472</v>
       </c>
       <c r="C80" s="8">
@@ -2236,7 +2243,7 @@
       <c r="A81" s="7">
         <v>104</v>
       </c>
-      <c r="B81" s="15">
+      <c r="B81" s="14">
         <v>0.9788</v>
       </c>
       <c r="C81" s="8">
@@ -2252,7 +2259,7 @@
       <c r="A82" s="7">
         <v>105</v>
       </c>
-      <c r="B82" s="15">
+      <c r="B82" s="14">
         <v>0.8417</v>
       </c>
       <c r="C82" s="8">
@@ -2268,7 +2275,7 @@
       <c r="A83" s="7">
         <v>106</v>
       </c>
-      <c r="B83" s="15">
+      <c r="B83" s="14">
         <v>0.84860000000000002</v>
       </c>
       <c r="C83" s="8">
@@ -2284,7 +2291,7 @@
       <c r="A84" s="7">
         <v>107</v>
       </c>
-      <c r="B84" s="15">
+      <c r="B84" s="14">
         <v>0.81</v>
       </c>
       <c r="C84" s="8">
@@ -2300,7 +2307,7 @@
       <c r="A85" s="7">
         <v>108</v>
       </c>
-      <c r="B85" s="15">
+      <c r="B85" s="14">
         <v>1.1638999999999999</v>
       </c>
       <c r="C85" s="8">
@@ -2316,7 +2323,7 @@
       <c r="A86" s="7">
         <v>109</v>
       </c>
-      <c r="B86" s="15">
+      <c r="B86" s="14">
         <v>1.2174</v>
       </c>
       <c r="C86" s="8">
@@ -2332,7 +2339,7 @@
       <c r="A87" s="7">
         <v>110</v>
       </c>
-      <c r="B87" s="15">
+      <c r="B87" s="14">
         <v>1.2282999999999999</v>
       </c>
       <c r="C87" s="8">
@@ -2348,7 +2355,7 @@
       <c r="A88" s="7">
         <v>123</v>
       </c>
-      <c r="B88" s="15">
+      <c r="B88" s="14">
         <v>1.7721</v>
       </c>
       <c r="C88" s="8">
@@ -2364,7 +2371,7 @@
       <c r="A89" s="7">
         <v>124</v>
       </c>
-      <c r="B89" s="15">
+      <c r="B89" s="14">
         <v>1.6476999999999999</v>
       </c>
       <c r="C89" s="8">
@@ -2380,7 +2387,7 @@
       <c r="A90" s="7">
         <v>125</v>
       </c>
-      <c r="B90" s="15">
+      <c r="B90" s="14">
         <v>1.5924</v>
       </c>
       <c r="C90" s="8">
@@ -2396,7 +2403,7 @@
       <c r="A91" s="7">
         <v>126</v>
       </c>
-      <c r="B91" s="15">
+      <c r="B91" s="14">
         <v>1.5964</v>
       </c>
       <c r="C91" s="8">
@@ -2412,7 +2419,7 @@
       <c r="A92" s="7">
         <v>127</v>
       </c>
-      <c r="B92" s="15">
+      <c r="B92" s="14">
         <v>1.774</v>
       </c>
       <c r="C92" s="8">
@@ -2428,7 +2435,7 @@
       <c r="A93" s="7">
         <v>129</v>
       </c>
-      <c r="B93" s="15">
+      <c r="B93" s="14">
         <v>2.9266000000000001</v>
       </c>
       <c r="C93" s="8">
@@ -2444,7 +2451,7 @@
       <c r="A94" s="7">
         <v>130</v>
       </c>
-      <c r="B94" s="15">
+      <c r="B94" s="14">
         <v>2.96</v>
       </c>
       <c r="C94" s="8">
@@ -2460,7 +2467,7 @@
       <c r="A95" s="7">
         <v>131</v>
       </c>
-      <c r="B95" s="15">
+      <c r="B95" s="14">
         <v>2.3799000000000001</v>
       </c>
       <c r="C95" s="8">
@@ -2476,7 +2483,7 @@
       <c r="A96" s="7">
         <v>132</v>
       </c>
-      <c r="B96" s="15">
+      <c r="B96" s="14">
         <v>2.0623999999999998</v>
       </c>
       <c r="C96" s="8">
@@ -2492,7 +2499,7 @@
       <c r="A97" s="7">
         <v>133</v>
       </c>
-      <c r="B97" s="15">
+      <c r="B97" s="14">
         <v>1.9626999999999999</v>
       </c>
       <c r="C97" s="8">
@@ -2508,7 +2515,7 @@
       <c r="A98" s="7">
         <v>134</v>
       </c>
-      <c r="B98" s="15">
+      <c r="B98" s="14">
         <v>2.8811</v>
       </c>
       <c r="C98" s="8">
@@ -2524,7 +2531,7 @@
       <c r="A99" s="7">
         <v>135</v>
       </c>
-      <c r="B99" s="15">
+      <c r="B99" s="14">
         <v>3.1435</v>
       </c>
       <c r="C99" s="8">
@@ -2540,7 +2547,7 @@
       <c r="A100" s="7">
         <v>136</v>
       </c>
-      <c r="B100" s="15">
+      <c r="B100" s="14">
         <v>2.6602000000000001</v>
       </c>
       <c r="C100" s="8">
@@ -2556,7 +2563,7 @@
       <c r="A101" s="7">
         <v>137</v>
       </c>
-      <c r="B101" s="15">
+      <c r="B101" s="14">
         <v>2.4594</v>
       </c>
       <c r="C101" s="8">
@@ -2572,7 +2579,7 @@
       <c r="A102" s="7">
         <v>138</v>
       </c>
-      <c r="B102" s="15">
+      <c r="B102" s="14">
         <v>2.2606999999999999</v>
       </c>
       <c r="C102" s="8">
@@ -2588,7 +2595,7 @@
       <c r="A103" s="7">
         <v>139</v>
       </c>
-      <c r="B103" s="15">
+      <c r="B103" s="14">
         <v>2.3944000000000001</v>
       </c>
       <c r="C103" s="8">
@@ -2604,7 +2611,7 @@
       <c r="A104" s="7">
         <v>140</v>
       </c>
-      <c r="B104" s="15">
+      <c r="B104" s="14">
         <v>2.2262</v>
       </c>
       <c r="C104" s="8">
@@ -2620,7 +2627,7 @@
       <c r="A105" s="7">
         <v>141</v>
       </c>
-      <c r="B105" s="15">
+      <c r="B105" s="14">
         <v>2.1198000000000001</v>
       </c>
       <c r="C105" s="8">
@@ -2636,7 +2643,7 @@
       <c r="A106" s="7">
         <v>142</v>
       </c>
-      <c r="B106" s="15">
+      <c r="B106" s="14">
         <v>2.4346000000000001</v>
       </c>
       <c r="C106" s="8">
@@ -2652,7 +2659,7 @@
       <c r="A107" s="7">
         <v>143</v>
       </c>
-      <c r="B107" s="15">
+      <c r="B107" s="14">
         <v>2.9028</v>
       </c>
       <c r="C107" s="8">
@@ -2668,7 +2675,7 @@
       <c r="A108" s="7">
         <v>144</v>
       </c>
-      <c r="B108" s="15">
+      <c r="B108" s="14">
         <v>3.2313000000000001</v>
       </c>
       <c r="C108" s="8">
@@ -2684,7 +2691,7 @@
       <c r="A109" s="7">
         <v>145</v>
       </c>
-      <c r="B109" s="15">
+      <c r="B109" s="14">
         <v>2.8868</v>
       </c>
       <c r="C109" s="8">
@@ -2700,7 +2707,7 @@
       <c r="A110" s="7">
         <v>146</v>
       </c>
-      <c r="B110" s="15">
+      <c r="B110" s="14">
         <v>2.8138000000000001</v>
       </c>
       <c r="C110" s="8">
@@ -2716,7 +2723,7 @@
       <c r="A111" s="7">
         <v>147</v>
       </c>
-      <c r="B111" s="15">
+      <c r="B111" s="14">
         <v>3.532</v>
       </c>
       <c r="C111" s="8">
@@ -2732,7 +2739,7 @@
       <c r="A112" s="7">
         <v>148</v>
       </c>
-      <c r="B112" s="15">
+      <c r="B112" s="14">
         <v>3.0834000000000001</v>
       </c>
       <c r="C112" s="8">
@@ -2748,7 +2755,7 @@
       <c r="A113" s="7">
         <v>149</v>
       </c>
-      <c r="B113" s="15">
+      <c r="B113" s="14">
         <v>3.5024999999999999</v>
       </c>
       <c r="C113" s="8">
@@ -2764,7 +2771,7 @@
       <c r="A114" s="7">
         <v>150</v>
       </c>
-      <c r="B114" s="15">
+      <c r="B114" s="14">
         <v>4.0378999999999996</v>
       </c>
       <c r="C114" s="8">
@@ -2780,7 +2787,7 @@
       <c r="A115" s="7">
         <v>151</v>
       </c>
-      <c r="B115" s="15">
+      <c r="B115" s="14">
         <v>4.1860999999999997</v>
       </c>
       <c r="C115" s="8">
@@ -2796,7 +2803,7 @@
       <c r="A116" s="7">
         <v>152</v>
       </c>
-      <c r="B116" s="15">
+      <c r="B116" s="14">
         <v>4.9779</v>
       </c>
       <c r="C116" s="8">
@@ -2812,7 +2819,7 @@
       <c r="A117" s="7">
         <v>153</v>
       </c>
-      <c r="B117" s="15">
+      <c r="B117" s="14">
         <v>4.9379</v>
       </c>
       <c r="C117" s="8">
@@ -2828,7 +2835,7 @@
       <c r="A118" s="7">
         <v>154</v>
       </c>
-      <c r="B118" s="15">
+      <c r="B118" s="14">
         <v>5.8574999999999999</v>
       </c>
       <c r="C118" s="8">
@@ -2844,7 +2851,7 @@
       <c r="A119" s="7">
         <v>155</v>
       </c>
-      <c r="B119" s="15">
+      <c r="B119" s="14">
         <v>5.5381999999999998</v>
       </c>
       <c r="C119" s="8">
@@ -2860,7 +2867,7 @@
       <c r="A120" s="7">
         <v>156</v>
       </c>
-      <c r="B120" s="15">
+      <c r="B120" s="14">
         <v>4.3497000000000003</v>
       </c>
       <c r="C120" s="8">
@@ -2876,7 +2883,7 @@
       <c r="A121" s="7">
         <v>157</v>
       </c>
-      <c r="B121" s="15">
+      <c r="B121" s="14">
         <v>4.3087</v>
       </c>
       <c r="C121" s="8">
@@ -2892,7 +2899,7 @@
       <c r="A122" s="7">
         <v>158</v>
       </c>
-      <c r="B122" s="15">
+      <c r="B122" s="14">
         <v>5.5262000000000002</v>
       </c>
       <c r="C122" s="8">
@@ -2908,7 +2915,7 @@
       <c r="A123" s="7">
         <v>159</v>
       </c>
-      <c r="B123" s="15">
+      <c r="B123" s="14">
         <v>5.6207000000000003</v>
       </c>
       <c r="C123" s="8">
@@ -2924,7 +2931,7 @@
       <c r="A124" s="7">
         <v>160</v>
       </c>
-      <c r="B124" s="15">
+      <c r="B124" s="14">
         <v>4.4843999999999999</v>
       </c>
       <c r="C124" s="8">
@@ -2940,7 +2947,7 @@
       <c r="A125" s="7">
         <v>161</v>
       </c>
-      <c r="B125" s="15">
+      <c r="B125" s="14">
         <v>4.1632999999999996</v>
       </c>
       <c r="C125" s="8">
@@ -2956,7 +2963,7 @@
       <c r="A126" s="7">
         <v>162</v>
       </c>
-      <c r="B126" s="15">
+      <c r="B126" s="14">
         <v>4.3219000000000003</v>
       </c>
       <c r="C126" s="8">
@@ -2972,7 +2979,7 @@
       <c r="A127" s="7">
         <v>163</v>
       </c>
-      <c r="B127" s="15">
+      <c r="B127" s="14">
         <v>4.3936999999999999</v>
       </c>
       <c r="C127" s="8">
@@ -2988,7 +2995,7 @@
       <c r="A128" s="7">
         <v>164</v>
       </c>
-      <c r="B128" s="15">
+      <c r="B128" s="14">
         <v>4.3407</v>
       </c>
       <c r="C128" s="8">
@@ -3004,7 +3011,7 @@
       <c r="A129" s="7">
         <v>165</v>
       </c>
-      <c r="B129" s="15">
+      <c r="B129" s="14">
         <v>4.3853</v>
       </c>
       <c r="C129" s="8">
@@ -3020,7 +3027,7 @@
       <c r="A130" s="7">
         <v>166</v>
       </c>
-      <c r="B130" s="15">
+      <c r="B130" s="14">
         <v>4.5491999999999999</v>
       </c>
       <c r="C130" s="8">
@@ -3036,7 +3043,7 @@
       <c r="A131" s="7">
         <v>167</v>
       </c>
-      <c r="B131" s="15">
+      <c r="B131" s="14">
         <v>4.4991000000000003</v>
       </c>
       <c r="C131" s="8">
@@ -3052,7 +3059,7 @@
       <c r="A132" s="7">
         <v>168</v>
       </c>
-      <c r="B132" s="15">
+      <c r="B132" s="14">
         <v>4.5518000000000001</v>
       </c>
       <c r="C132" s="8">
@@ -3068,7 +3075,7 @@
       <c r="A133" s="7">
         <v>169</v>
       </c>
-      <c r="B133" s="15">
+      <c r="B133" s="14">
         <v>5.1890999999999998</v>
       </c>
       <c r="C133" s="8">
@@ -3084,7 +3091,7 @@
       <c r="A134" s="7">
         <v>170</v>
       </c>
-      <c r="B134" s="15">
+      <c r="B134" s="14">
         <v>5.7577999999999996</v>
       </c>
       <c r="C134" s="8">
@@ -3100,7 +3107,7 @@
       <c r="A135" s="7">
         <v>171</v>
       </c>
-      <c r="B135" s="15">
+      <c r="B135" s="14">
         <v>4.8780999999999999</v>
       </c>
       <c r="C135" s="8">
@@ -3116,7 +3123,7 @@
       <c r="A136" s="7">
         <v>172</v>
       </c>
-      <c r="B136" s="15">
+      <c r="B136" s="14">
         <v>5.2683</v>
       </c>
       <c r="C136" s="8">
@@ -3132,7 +3139,7 @@
       <c r="A137" s="7">
         <v>173</v>
       </c>
-      <c r="B137" s="15">
+      <c r="B137" s="14">
         <v>4.6710000000000003</v>
       </c>
       <c r="C137" s="8">
@@ -3148,7 +3155,7 @@
       <c r="A138" s="7">
         <v>174</v>
       </c>
-      <c r="B138" s="15">
+      <c r="B138" s="14">
         <v>4.2965999999999998</v>
       </c>
       <c r="C138" s="8">
@@ -3164,7 +3171,7 @@
       <c r="A139" s="7">
         <v>175</v>
       </c>
-      <c r="B139" s="15">
+      <c r="B139" s="14">
         <v>4.3691000000000004</v>
       </c>
       <c r="C139" s="8">
@@ -3180,7 +3187,7 @@
       <c r="A140" s="7">
         <v>176</v>
       </c>
-      <c r="B140" s="15">
+      <c r="B140" s="14">
         <v>4.6097999999999999</v>
       </c>
       <c r="C140" s="8">
@@ -3196,7 +3203,7 @@
       <c r="A141" s="7">
         <v>177</v>
       </c>
-      <c r="B141" s="15">
+      <c r="B141" s="14">
         <v>5.3090000000000002</v>
       </c>
       <c r="C141" s="8">
@@ -3212,7 +3219,7 @@
       <c r="A142" s="7">
         <v>178</v>
       </c>
-      <c r="B142" s="15">
+      <c r="B142" s="14">
         <v>5.5042999999999997</v>
       </c>
       <c r="C142" s="8">
@@ -3228,7 +3235,7 @@
       <c r="A143" s="7">
         <v>179</v>
       </c>
-      <c r="B143" s="15">
+      <c r="B143" s="14">
         <v>4.7751000000000001</v>
       </c>
       <c r="C143" s="8">
@@ -3244,7 +3251,7 @@
       <c r="A144" s="7">
         <v>180</v>
       </c>
-      <c r="B144" s="15">
+      <c r="B144" s="14">
         <v>4.4162999999999997</v>
       </c>
       <c r="C144" s="8">
@@ -3260,7 +3267,7 @@
       <c r="A145" s="7">
         <v>181</v>
       </c>
-      <c r="B145" s="15">
+      <c r="B145" s="14">
         <v>4.0928000000000004</v>
       </c>
       <c r="C145" s="8">
@@ -3276,7 +3283,7 @@
       <c r="A146" s="7">
         <v>182</v>
       </c>
-      <c r="B146" s="15">
+      <c r="B146" s="14">
         <v>4.1588000000000003</v>
       </c>
       <c r="C146" s="8">
@@ -3292,7 +3299,7 @@
       <c r="A147" s="7">
         <v>183</v>
       </c>
-      <c r="B147" s="15">
+      <c r="B147" s="14">
         <v>4.2808000000000002</v>
       </c>
       <c r="C147" s="8">
@@ -3308,7 +3315,7 @@
       <c r="A148" s="7">
         <v>184</v>
       </c>
-      <c r="B148" s="15">
+      <c r="B148" s="14">
         <v>4.7329999999999997</v>
       </c>
       <c r="C148" s="8">
@@ -3324,7 +3331,7 @@
       <c r="A149" s="7">
         <v>185</v>
       </c>
-      <c r="B149" s="15">
+      <c r="B149" s="14">
         <v>4.3367000000000004</v>
       </c>
       <c r="C149" s="8">
@@ -3340,7 +3347,7 @@
       <c r="A150" s="7">
         <v>186</v>
       </c>
-      <c r="B150" s="15">
+      <c r="B150" s="14">
         <v>3.7425999999999999</v>
       </c>
       <c r="C150" s="8">
@@ -3356,7 +3363,7 @@
       <c r="A151" s="7">
         <v>187</v>
       </c>
-      <c r="B151" s="15">
+      <c r="B151" s="14">
         <v>3.4864999999999999</v>
       </c>
       <c r="C151" s="8">
@@ -3372,7 +3379,7 @@
       <c r="A152" s="7">
         <v>188</v>
       </c>
-      <c r="B152" s="15">
+      <c r="B152" s="14">
         <v>3.5282</v>
       </c>
       <c r="C152" s="8">
@@ -3388,7 +3395,7 @@
       <c r="A153" s="7">
         <v>189</v>
       </c>
-      <c r="B153" s="15">
+      <c r="B153" s="14">
         <v>4.7743000000000002</v>
       </c>
       <c r="C153" s="8">
@@ -3404,7 +3411,7 @@
       <c r="A154" s="7">
         <v>190</v>
       </c>
-      <c r="B154" s="15">
+      <c r="B154" s="14">
         <v>5.4950999999999999</v>
       </c>
       <c r="C154" s="8">
@@ -3420,7 +3427,7 @@
       <c r="A155" s="7">
         <v>191</v>
       </c>
-      <c r="B155" s="15">
+      <c r="B155" s="14">
         <v>4.8745000000000003</v>
       </c>
       <c r="C155" s="8">
@@ -3436,7 +3443,7 @@
       <c r="A156" s="7">
         <v>192</v>
       </c>
-      <c r="B156" s="15">
+      <c r="B156" s="14">
         <v>4.8276000000000003</v>
       </c>
       <c r="C156" s="8">
@@ -3452,7 +3459,7 @@
       <c r="A157" s="7">
         <v>193</v>
       </c>
-      <c r="B157" s="15">
+      <c r="B157" s="14">
         <v>4.9428000000000001</v>
       </c>
       <c r="C157" s="8">
@@ -3468,7 +3475,7 @@
       <c r="A158" s="7">
         <v>194</v>
       </c>
-      <c r="B158" s="15">
+      <c r="B158" s="14">
         <v>4.8921000000000001</v>
       </c>
       <c r="C158" s="8">
@@ -3484,7 +3491,7 @@
       <c r="A159" s="7">
         <v>195</v>
       </c>
-      <c r="B159" s="15">
+      <c r="B159" s="14">
         <v>5.2888000000000002</v>
       </c>
       <c r="C159" s="8">
@@ -3500,7 +3507,7 @@
       <c r="A160" s="7">
         <v>196</v>
       </c>
-      <c r="B160" s="15">
+      <c r="B160" s="14">
         <v>6.1154000000000002</v>
       </c>
       <c r="C160" s="8">
@@ -3516,7 +3523,7 @@
       <c r="A161" s="7">
         <v>197</v>
       </c>
-      <c r="B161" s="15">
+      <c r="B161" s="14">
         <v>6.0911999999999997</v>
       </c>
       <c r="C161" s="8">
@@ -3532,7 +3539,7 @@
       <c r="A162" s="7">
         <v>198</v>
       </c>
-      <c r="B162" s="15">
+      <c r="B162" s="14">
         <v>6.0438000000000001</v>
       </c>
       <c r="C162" s="8">
@@ -3548,7 +3555,7 @@
       <c r="A163" s="7">
         <v>199</v>
       </c>
-      <c r="B163" s="15">
+      <c r="B163" s="14">
         <v>5.9157000000000002</v>
       </c>
       <c r="C163" s="8">
@@ -3564,7 +3571,7 @@
       <c r="A164" s="7">
         <v>200</v>
       </c>
-      <c r="B164" s="15">
+      <c r="B164" s="14">
         <v>5.4625000000000004</v>
       </c>
       <c r="C164" s="8">
@@ -3580,7 +3587,7 @@
       <c r="A165" s="7">
         <v>201</v>
       </c>
-      <c r="B165" s="15">
+      <c r="B165" s="14">
         <v>5.0827</v>
       </c>
       <c r="C165" s="8">
@@ -3596,7 +3603,7 @@
       <c r="A166" s="7">
         <v>202</v>
       </c>
-      <c r="B166" s="15">
+      <c r="B166" s="14">
         <v>4.3978999999999999</v>
       </c>
       <c r="C166" s="8">
@@ -3612,7 +3619,7 @@
       <c r="A167" s="7">
         <v>203</v>
       </c>
-      <c r="B167" s="15">
+      <c r="B167" s="14">
         <v>3.9478</v>
       </c>
       <c r="C167" s="8">
@@ -3628,7 +3635,7 @@
       <c r="A168" s="7">
         <v>204</v>
       </c>
-      <c r="B168" s="15">
+      <c r="B168" s="14">
         <v>3.6110000000000002</v>
       </c>
       <c r="C168" s="8">
@@ -3644,7 +3651,7 @@
       <c r="A169" s="7">
         <v>205</v>
       </c>
-      <c r="B169" s="15">
+      <c r="B169" s="14">
         <v>5.39</v>
       </c>
       <c r="C169" s="8">
@@ -3660,7 +3667,7 @@
       <c r="A170" s="7">
         <v>206</v>
       </c>
-      <c r="B170" s="15">
+      <c r="B170" s="14">
         <v>6.2782</v>
       </c>
       <c r="C170" s="8">
@@ -3676,7 +3683,7 @@
       <c r="A171" s="7">
         <v>207</v>
       </c>
-      <c r="B171" s="15">
+      <c r="B171" s="14">
         <v>7.6269999999999998</v>
       </c>
       <c r="C171" s="8">
@@ -3692,7 +3699,7 @@
       <c r="A172" s="7">
         <v>208</v>
       </c>
-      <c r="B172" s="15">
+      <c r="B172" s="14">
         <v>7.6471999999999998</v>
       </c>
       <c r="C172" s="8">
@@ -3708,7 +3715,7 @@
       <c r="A173" s="7">
         <v>209</v>
       </c>
-      <c r="B173" s="15">
+      <c r="B173" s="14">
         <v>7.1837</v>
       </c>
       <c r="C173" s="8">
@@ -3724,7 +3731,7 @@
       <c r="A174" s="7">
         <v>210</v>
       </c>
-      <c r="B174" s="15">
+      <c r="B174" s="14">
         <v>7.1658999999999997</v>
       </c>
       <c r="C174" s="8">
@@ -3740,7 +3747,7 @@
       <c r="A175" s="7">
         <v>211</v>
       </c>
-      <c r="B175" s="15">
+      <c r="B175" s="14">
         <v>8.5932999999999993</v>
       </c>
       <c r="C175" s="8">
@@ -3756,7 +3763,7 @@
       <c r="A176" s="7">
         <v>212</v>
       </c>
-      <c r="B176" s="15">
+      <c r="B176" s="14">
         <v>8.6288999999999998</v>
       </c>
       <c r="C176" s="8">
@@ -3772,7 +3779,7 @@
       <c r="A177" s="7">
         <v>213</v>
       </c>
-      <c r="B177" s="15">
+      <c r="B177" s="14">
         <v>7.7504999999999997</v>
       </c>
       <c r="C177" s="8">
@@ -3788,7 +3795,7 @@
       <c r="A178" s="7">
         <v>214</v>
       </c>
-      <c r="B178" s="15">
+      <c r="B178" s="14">
         <v>7.8776000000000002</v>
       </c>
       <c r="C178" s="8">
@@ -3804,7 +3811,7 @@
       <c r="A179" s="7">
         <v>215</v>
       </c>
-      <c r="B179" s="15">
+      <c r="B179" s="14">
         <v>7.5008999999999997</v>
       </c>
       <c r="C179" s="8">
@@ -3820,7 +3827,7 @@
       <c r="A180" s="7">
         <v>216</v>
       </c>
-      <c r="B180" s="15">
+      <c r="B180" s="14">
         <v>7.9504000000000001</v>
       </c>
       <c r="C180" s="8">
@@ -3836,7 +3843,7 @@
       <c r="A181" s="7">
         <v>217</v>
       </c>
-      <c r="B181" s="15">
+      <c r="B181" s="14">
         <v>6.7058999999999997</v>
       </c>
       <c r="C181" s="8">
@@ -3852,7 +3859,7 @@
       <c r="A182" s="7">
         <v>218</v>
       </c>
-      <c r="B182" s="15">
+      <c r="B182" s="14">
         <v>7.0359999999999996</v>
       </c>
       <c r="C182" s="8">
@@ -3868,7 +3875,7 @@
       <c r="A183" s="7">
         <v>219</v>
       </c>
-      <c r="B183" s="15">
+      <c r="B183" s="14">
         <v>5.8410000000000002</v>
       </c>
       <c r="C183" s="8">
@@ -3884,7 +3891,7 @@
       <c r="A184" s="7">
         <v>220</v>
       </c>
-      <c r="B184" s="15">
+      <c r="B184" s="14">
         <v>5.4428999999999998</v>
       </c>
       <c r="C184" s="8">
@@ -3900,7 +3907,7 @@
       <c r="A185" s="7">
         <v>221</v>
       </c>
-      <c r="B185" s="15">
+      <c r="B185" s="14">
         <v>5.8445</v>
       </c>
       <c r="C185" s="8">
@@ -3916,7 +3923,7 @@
       <c r="A186" s="7">
         <v>222</v>
       </c>
-      <c r="B186" s="15">
+      <c r="B186" s="14">
         <v>6.2018000000000004</v>
       </c>
       <c r="C186" s="8">
@@ -3932,7 +3939,7 @@
       <c r="A187" s="7">
         <v>223</v>
       </c>
-      <c r="B187" s="15">
+      <c r="B187" s="14">
         <v>4.6891999999999996</v>
       </c>
       <c r="C187" s="8">
@@ -3948,7 +3955,7 @@
       <c r="A188" s="7">
         <v>224</v>
       </c>
-      <c r="B188" s="15">
+      <c r="B188" s="14">
         <v>4.7922000000000002</v>
       </c>
       <c r="C188" s="8">
@@ -3964,7 +3971,7 @@
       <c r="A189" s="7">
         <v>225</v>
       </c>
-      <c r="B189" s="15">
+      <c r="B189" s="14">
         <v>5.1106999999999996</v>
       </c>
       <c r="C189" s="8">
@@ -3980,7 +3987,7 @@
       <c r="A190" s="7">
         <v>226</v>
       </c>
-      <c r="B190" s="15">
+      <c r="B190" s="14">
         <v>5.8742000000000001</v>
       </c>
       <c r="C190" s="8">
@@ -3996,7 +4003,7 @@
       <c r="A191" s="7">
         <v>227</v>
       </c>
-      <c r="B191" s="15">
+      <c r="B191" s="14">
         <v>4.8829000000000002</v>
       </c>
       <c r="C191" s="8">
@@ -4012,7 +4019,7 @@
       <c r="A192" s="7">
         <v>228</v>
       </c>
-      <c r="B192" s="15">
+      <c r="B192" s="14">
         <v>5.1277999999999997</v>
       </c>
       <c r="C192" s="8">
@@ -4028,7 +4035,7 @@
       <c r="A193" s="7">
         <v>229</v>
       </c>
-      <c r="B193" s="15">
+      <c r="B193" s="14">
         <v>5.2952000000000004</v>
       </c>
       <c r="C193" s="8">
@@ -4044,7 +4051,7 @@
       <c r="A194" s="7">
         <v>230</v>
       </c>
-      <c r="B194" s="15">
+      <c r="B194" s="14">
         <v>5.6536999999999997</v>
       </c>
       <c r="C194" s="8">
@@ -4060,7 +4067,7 @@
       <c r="A195" s="7">
         <v>231</v>
       </c>
-      <c r="B195" s="15">
+      <c r="B195" s="14">
         <v>5.9138999999999999</v>
       </c>
       <c r="C195" s="8">
@@ -4076,7 +4083,7 @@
       <c r="A196" s="7">
         <v>232</v>
       </c>
-      <c r="B196" s="15">
+      <c r="B196" s="14">
         <v>5.9398</v>
       </c>
       <c r="C196" s="8">
@@ -4092,7 +4099,7 @@
       <c r="A197" s="7">
         <v>233</v>
       </c>
-      <c r="B197" s="15">
+      <c r="B197" s="14">
         <v>5.8414999999999999</v>
       </c>
       <c r="C197" s="8">
@@ -4108,7 +4115,7 @@
       <c r="A198" s="7">
         <v>234</v>
       </c>
-      <c r="B198" s="15">
+      <c r="B198" s="14">
         <v>5.1946000000000003</v>
       </c>
       <c r="C198" s="8">
@@ -4124,7 +4131,7 @@
       <c r="A199" s="7">
         <v>235</v>
       </c>
-      <c r="B199" s="15">
+      <c r="B199" s="14">
         <v>4.8951000000000002</v>
       </c>
       <c r="C199" s="8">
@@ -4140,7 +4147,7 @@
       <c r="A200" s="7">
         <v>236</v>
       </c>
-      <c r="B200" s="15">
+      <c r="B200" s="14">
         <v>4.8258000000000001</v>
       </c>
       <c r="C200" s="8">
@@ -4156,7 +4163,7 @@
       <c r="A201" s="7">
         <v>237</v>
       </c>
-      <c r="B201" s="15">
+      <c r="B201" s="14">
         <v>4.8638000000000003</v>
       </c>
       <c r="C201" s="8">
@@ -4172,7 +4179,7 @@
       <c r="A202" s="7">
         <v>238</v>
       </c>
-      <c r="B202" s="15">
+      <c r="B202" s="14">
         <v>6.1167999999999996</v>
       </c>
       <c r="C202" s="8">
@@ -4188,7 +4195,7 @@
       <c r="A203" s="7">
         <v>239</v>
       </c>
-      <c r="B203" s="15">
+      <c r="B203" s="14">
         <v>6.5441000000000003</v>
       </c>
       <c r="C203" s="8">
@@ -4204,7 +4211,7 @@
       <c r="A204" s="7">
         <v>240</v>
       </c>
-      <c r="B204" s="15">
+      <c r="B204" s="14">
         <v>6.6086999999999998</v>
       </c>
       <c r="C204" s="8">
@@ -4220,7 +4227,7 @@
       <c r="A205" s="7">
         <v>241</v>
       </c>
-      <c r="B205" s="15">
+      <c r="B205" s="14">
         <v>6.0739999999999998</v>
       </c>
       <c r="C205" s="8">
@@ -4236,7 +4243,7 @@
       <c r="A206" s="7">
         <v>242</v>
       </c>
-      <c r="B206" s="15">
+      <c r="B206" s="14">
         <v>4.5126999999999997</v>
       </c>
       <c r="C206" s="8">
@@ -4252,7 +4259,7 @@
       <c r="A207" s="7">
         <v>243</v>
       </c>
-      <c r="B207" s="15">
+      <c r="B207" s="14">
         <v>4.3928000000000003</v>
       </c>
       <c r="C207" s="8">
@@ -4268,7 +4275,7 @@
       <c r="A208" s="7">
         <v>244</v>
       </c>
-      <c r="B208" s="15">
+      <c r="B208" s="14">
         <v>4.3127000000000004</v>
       </c>
       <c r="C208" s="8">
@@ -4284,7 +4291,7 @@
       <c r="A209" s="7">
         <v>245</v>
       </c>
-      <c r="B209" s="15">
+      <c r="B209" s="14">
         <v>4.2434000000000003</v>
       </c>
       <c r="C209" s="8">
@@ -4300,7 +4307,7 @@
       <c r="A210" s="7">
         <v>246</v>
       </c>
-      <c r="B210" s="15">
+      <c r="B210" s="14">
         <v>4.1877000000000004</v>
       </c>
       <c r="C210" s="8">
@@ -4316,7 +4323,7 @@
       <c r="A211" s="7">
         <v>247</v>
       </c>
-      <c r="B211" s="15">
+      <c r="B211" s="14">
         <v>4.1795999999999998</v>
       </c>
       <c r="C211" s="8">
@@ -4332,7 +4339,7 @@
       <c r="A212" s="7">
         <v>248</v>
       </c>
-      <c r="B212" s="15">
+      <c r="B212" s="14">
         <v>3.9699</v>
       </c>
       <c r="C212" s="8">
@@ -4348,7 +4355,7 @@
       <c r="A213" s="7">
         <v>249</v>
       </c>
-      <c r="B213" s="15">
+      <c r="B213" s="14">
         <v>3.5436999999999999</v>
       </c>
       <c r="C213" s="8">
@@ -4364,7 +4371,7 @@
       <c r="A214" s="7">
         <v>250</v>
       </c>
-      <c r="B214" s="15">
+      <c r="B214" s="14">
         <v>3.6673</v>
       </c>
       <c r="C214" s="8">
@@ -4380,7 +4387,7 @@
       <c r="A215" s="7">
         <v>251</v>
       </c>
-      <c r="B215" s="15">
+      <c r="B215" s="14">
         <v>4.5038999999999998</v>
       </c>
       <c r="C215" s="8">
@@ -4396,7 +4403,7 @@
       <c r="A216" s="7">
         <v>252</v>
       </c>
-      <c r="B216" s="15">
+      <c r="B216" s="14">
         <v>3.8340000000000001</v>
       </c>
       <c r="C216" s="8">
@@ -4412,7 +4419,7 @@
       <c r="A217" s="7">
         <v>253</v>
       </c>
-      <c r="B217" s="15">
+      <c r="B217" s="14">
         <v>4.2055999999999996</v>
       </c>
       <c r="C217" s="8">
@@ -4428,7 +4435,7 @@
       <c r="A218" s="7">
         <v>254</v>
       </c>
-      <c r="B218" s="15">
+      <c r="B218" s="14">
         <v>4.5297000000000001</v>
       </c>
       <c r="C218" s="8">
@@ -4444,7 +4451,7 @@
       <c r="A219" s="7">
         <v>255</v>
       </c>
-      <c r="B219" s="15">
+      <c r="B219" s="14">
         <v>5.04</v>
       </c>
       <c r="C219" s="8">
@@ -4460,7 +4467,7 @@
       <c r="A220" s="7">
         <v>256</v>
       </c>
-      <c r="B220" s="15">
+      <c r="B220" s="14">
         <v>5.3691000000000004</v>
       </c>
       <c r="C220" s="8">
@@ -4476,7 +4483,7 @@
       <c r="A221" s="7">
         <v>257</v>
       </c>
-      <c r="B221" s="15">
+      <c r="B221" s="14">
         <v>5.9741999999999997</v>
       </c>
       <c r="C221" s="8">
@@ -4492,7 +4499,7 @@
       <c r="A222" s="7">
         <v>258</v>
       </c>
-      <c r="B222" s="15">
+      <c r="B222" s="14">
         <v>5.1792999999999996</v>
       </c>
       <c r="C222" s="8">
@@ -4508,7 +4515,7 @@
       <c r="A223" s="7">
         <v>259</v>
       </c>
-      <c r="B223" s="15">
+      <c r="B223" s="14">
         <v>5.1409000000000002</v>
       </c>
       <c r="C223" s="8">
@@ -4524,7 +4531,7 @@
       <c r="A224" s="7">
         <v>260</v>
       </c>
-      <c r="B224" s="15">
+      <c r="B224" s="14">
         <v>5.0658000000000003</v>
       </c>
       <c r="C224" s="8">
@@ -4540,7 +4547,7 @@
       <c r="A225" s="7">
         <v>261</v>
       </c>
-      <c r="B225" s="15">
+      <c r="B225" s="14">
         <v>5.1708999999999996</v>
       </c>
       <c r="C225" s="8">
@@ -4556,7 +4563,7 @@
       <c r="A226" s="7">
         <v>262</v>
       </c>
-      <c r="B226" s="15">
+      <c r="B226" s="14">
         <v>4.8829000000000002</v>
       </c>
       <c r="C226" s="8">
@@ -4572,7 +4579,7 @@
       <c r="A227" s="7">
         <v>263</v>
       </c>
-      <c r="B227" s="15">
+      <c r="B227" s="14">
         <v>4.9034000000000004</v>
       </c>
       <c r="C227" s="8">
@@ -4588,7 +4595,7 @@
       <c r="A228" s="7">
         <v>264</v>
       </c>
-      <c r="B228" s="15">
+      <c r="B228" s="14">
         <v>5.67</v>
       </c>
       <c r="C228" s="8">
@@ -4604,7 +4611,7 @@
       <c r="A229" s="7">
         <v>265</v>
       </c>
-      <c r="B229" s="15">
+      <c r="B229" s="14">
         <v>6.0103</v>
       </c>
       <c r="C229" s="8">
@@ -4620,7 +4627,7 @@
       <c r="A230" s="7">
         <v>266</v>
       </c>
-      <c r="B230" s="15">
+      <c r="B230" s="14">
         <v>5.4630999999999998</v>
       </c>
       <c r="C230" s="8">
@@ -4636,7 +4643,7 @@
       <c r="A231" s="7">
         <v>267</v>
       </c>
-      <c r="B231" s="15">
+      <c r="B231" s="14">
         <v>4.5861999999999998</v>
       </c>
       <c r="C231" s="8">
@@ -4652,7 +4659,7 @@
       <c r="A232" s="7">
         <v>268</v>
       </c>
-      <c r="B232" s="15">
+      <c r="B232" s="14">
         <v>5.3049999999999997</v>
       </c>
       <c r="C232" s="8">
@@ -4668,7 +4675,7 @@
       <c r="A233" s="7">
         <v>269</v>
       </c>
-      <c r="B233" s="15">
+      <c r="B233" s="14">
         <v>5.3376000000000001</v>
       </c>
       <c r="C233" s="8">
@@ -4684,7 +4691,7 @@
       <c r="A234" s="7">
         <v>270</v>
       </c>
-      <c r="B234" s="15">
+      <c r="B234" s="14">
         <v>4.9162999999999997</v>
       </c>
       <c r="C234" s="8">
@@ -4700,7 +4707,7 @@
       <c r="A235" s="7">
         <v>271</v>
       </c>
-      <c r="B235" s="15">
+      <c r="B235" s="14">
         <v>4.3836000000000004</v>
       </c>
       <c r="C235" s="8">
@@ -4716,7 +4723,7 @@
       <c r="A236" s="7">
         <v>272</v>
       </c>
-      <c r="B236" s="15">
+      <c r="B236" s="14">
         <v>3.9203000000000001</v>
       </c>
       <c r="C236" s="8">
@@ -4732,7 +4739,7 @@
       <c r="A237" s="7">
         <v>273</v>
       </c>
-      <c r="B237" s="15">
+      <c r="B237" s="14">
         <v>4.1467999999999998</v>
       </c>
       <c r="C237" s="8">
@@ -4748,7 +4755,7 @@
       <c r="A238" s="7">
         <v>274</v>
       </c>
-      <c r="B238" s="15">
+      <c r="B238" s="14">
         <v>4.3540000000000001</v>
       </c>
       <c r="C238" s="8">
@@ -4764,7 +4771,7 @@
       <c r="A239" s="7">
         <v>275</v>
       </c>
-      <c r="B239" s="15">
+      <c r="B239" s="14">
         <v>5.0583</v>
       </c>
       <c r="C239" s="8">
@@ -4780,7 +4787,7 @@
       <c r="A240" s="7">
         <v>276</v>
       </c>
-      <c r="B240" s="15">
+      <c r="B240" s="14">
         <v>6.3183999999999996</v>
       </c>
       <c r="C240" s="8">
@@ -4796,7 +4803,7 @@
       <c r="A241" s="7">
         <v>277</v>
       </c>
-      <c r="B241" s="15">
+      <c r="B241" s="14">
         <v>5.9364999999999997</v>
       </c>
       <c r="C241" s="8">
@@ -4812,7 +4819,7 @@
       <c r="A242" s="7">
         <v>278</v>
       </c>
-      <c r="B242" s="15">
+      <c r="B242" s="14">
         <v>5.7302999999999997</v>
       </c>
       <c r="C242" s="8">
@@ -4828,7 +4835,7 @@
       <c r="A243" s="7">
         <v>279</v>
       </c>
-      <c r="B243" s="15">
+      <c r="B243" s="14">
         <v>4.6112000000000002</v>
       </c>
       <c r="C243" s="8">
@@ -4844,7 +4851,7 @@
       <c r="A244" s="7">
         <v>280</v>
       </c>
-      <c r="B244" s="15">
+      <c r="B244" s="14">
         <v>3.9483999999999999</v>
       </c>
       <c r="C244" s="8">
@@ -4860,7 +4867,7 @@
       <c r="A245" s="7">
         <v>281</v>
       </c>
-      <c r="B245" s="15">
+      <c r="B245" s="14">
         <v>3.7507000000000001</v>
       </c>
       <c r="C245" s="8">
@@ -4876,7 +4883,7 @@
       <c r="A246" s="7">
         <v>282</v>
       </c>
-      <c r="B246" s="15">
+      <c r="B246" s="14">
         <v>3.2734999999999999</v>
       </c>
       <c r="C246" s="8">
@@ -4892,7 +4899,7 @@
       <c r="A247" s="7">
         <v>283</v>
       </c>
-      <c r="B247" s="15">
+      <c r="B247" s="14">
         <v>3.3163</v>
       </c>
       <c r="C247" s="8">
@@ -4908,7 +4915,7 @@
       <c r="A248" s="7">
         <v>284</v>
       </c>
-      <c r="B248" s="15">
+      <c r="B248" s="14">
         <v>3.9076</v>
       </c>
       <c r="C248" s="8">
@@ -4924,7 +4931,7 @@
       <c r="A249" s="7">
         <v>285</v>
       </c>
-      <c r="B249" s="15">
+      <c r="B249" s="14">
         <v>3.7757999999999998</v>
       </c>
       <c r="C249" s="8">
@@ -4940,7 +4947,7 @@
       <c r="A250" s="7">
         <v>286</v>
       </c>
-      <c r="B250" s="15">
+      <c r="B250" s="14">
         <v>4.2930999999999999</v>
       </c>
       <c r="C250" s="8">
@@ -4956,7 +4963,7 @@
       <c r="A251" s="7">
         <v>287</v>
       </c>
-      <c r="B251" s="15">
+      <c r="B251" s="14">
         <v>4.2961999999999998</v>
       </c>
       <c r="C251" s="8">
@@ -4972,7 +4979,7 @@
       <c r="A252" s="7">
         <v>288</v>
       </c>
-      <c r="B252" s="15">
+      <c r="B252" s="14">
         <v>3.887</v>
       </c>
       <c r="C252" s="8">
@@ -4988,7 +4995,7 @@
       <c r="A253" s="7">
         <v>289</v>
       </c>
-      <c r="B253" s="15">
+      <c r="B253" s="14">
         <v>3.2864</v>
       </c>
       <c r="C253" s="8">
@@ -5004,7 +5011,7 @@
       <c r="A254" s="7">
         <v>290</v>
       </c>
-      <c r="B254" s="15">
+      <c r="B254" s="14">
         <v>3.5749</v>
       </c>
       <c r="C254" s="8">
@@ -5020,7 +5027,7 @@
       <c r="A255" s="7">
         <v>291</v>
       </c>
-      <c r="B255" s="15">
+      <c r="B255" s="14">
         <v>3.6217000000000001</v>
       </c>
       <c r="C255" s="8">
@@ -5036,7 +5043,7 @@
       <c r="A256" s="7">
         <v>311</v>
       </c>
-      <c r="B256" s="15">
+      <c r="B256" s="14">
         <v>2.8056000000000001</v>
       </c>
       <c r="C256" s="8">
@@ -5052,7 +5059,7 @@
       <c r="A257" s="7">
         <v>312</v>
       </c>
-      <c r="B257" s="15">
+      <c r="B257" s="14">
         <v>3.0470000000000002</v>
       </c>
       <c r="C257" s="8">
@@ -5068,7 +5075,7 @@
       <c r="A258" s="7">
         <v>313</v>
       </c>
-      <c r="B258" s="15">
+      <c r="B258" s="14">
         <v>2.8637999999999999</v>
       </c>
       <c r="C258" s="8">
@@ -5084,7 +5091,7 @@
       <c r="A259" s="7">
         <v>314</v>
       </c>
-      <c r="B259" s="15">
+      <c r="B259" s="14">
         <v>2.3628999999999998</v>
       </c>
       <c r="C259" s="8">
@@ -5100,7 +5107,7 @@
       <c r="A260" s="7">
         <v>321</v>
       </c>
-      <c r="B260" s="15">
+      <c r="B260" s="14">
         <v>1.8238000000000001</v>
       </c>
       <c r="C260" s="8">
@@ -5116,7 +5123,7 @@
       <c r="A261" s="7">
         <v>322</v>
       </c>
-      <c r="B261" s="15">
+      <c r="B261" s="14">
         <v>1.8120000000000001</v>
       </c>
       <c r="C261" s="8">
@@ -5132,7 +5139,7 @@
       <c r="A262" s="7">
         <v>323</v>
       </c>
-      <c r="B262" s="15">
+      <c r="B262" s="14">
         <v>1.5821000000000001</v>
       </c>
       <c r="C262" s="8">
@@ -5148,7 +5155,7 @@
       <c r="A263" s="7">
         <v>324</v>
       </c>
-      <c r="B263" s="15">
+      <c r="B263" s="14">
         <v>1.5502</v>
       </c>
       <c r="C263" s="8">
@@ -5164,7 +5171,7 @@
       <c r="A264" s="7">
         <v>325</v>
       </c>
-      <c r="B264" s="15">
+      <c r="B264" s="14">
         <v>1.3728</v>
       </c>
       <c r="C264" s="8">
@@ -5180,7 +5187,7 @@
       <c r="A265" s="7">
         <v>326</v>
       </c>
-      <c r="B265" s="15">
+      <c r="B265" s="14">
         <v>1.5122</v>
       </c>
       <c r="C265" s="8">
@@ -5196,7 +5203,7 @@
       <c r="A266" s="7">
         <v>327</v>
       </c>
-      <c r="B266" s="15">
+      <c r="B266" s="14">
         <v>1.5835999999999999</v>
       </c>
       <c r="C266" s="8">
@@ -5212,7 +5219,7 @@
       <c r="A267" s="7">
         <v>328</v>
       </c>
-      <c r="B267" s="15">
+      <c r="B267" s="14">
         <v>1.6321000000000001</v>
       </c>
       <c r="C267" s="8">
@@ -5228,7 +5235,7 @@
       <c r="A268" s="7">
         <v>329</v>
       </c>
-      <c r="B268" s="15">
+      <c r="B268" s="14">
         <v>1.8834</v>
       </c>
       <c r="C268" s="8">
@@ -5244,7 +5251,7 @@
       <c r="A269" s="7">
         <v>330</v>
       </c>
-      <c r="B269" s="15">
+      <c r="B269" s="14">
         <v>1.8392999999999999</v>
       </c>
       <c r="C269" s="8">
@@ -5260,7 +5267,7 @@
       <c r="A270" s="7">
         <v>331</v>
       </c>
-      <c r="B270" s="15">
+      <c r="B270" s="14">
         <v>1.9733000000000001</v>
       </c>
       <c r="C270" s="8">
@@ -5276,7 +5283,7 @@
       <c r="A271" s="7">
         <v>332</v>
       </c>
-      <c r="B271" s="15">
+      <c r="B271" s="14">
         <v>2.0030000000000001</v>
       </c>
       <c r="C271" s="8">
@@ -5292,7 +5299,7 @@
       <c r="A272" s="7">
         <v>333</v>
       </c>
-      <c r="B272" s="15">
+      <c r="B272" s="14">
         <v>2.4624999999999999</v>
       </c>
       <c r="C272" s="8">
@@ -5308,7 +5315,7 @@
       <c r="A273" s="7">
         <v>334</v>
       </c>
-      <c r="B273" s="15">
+      <c r="B273" s="14">
         <v>1.6379999999999999</v>
       </c>
       <c r="C273" s="8">
@@ -5324,7 +5331,7 @@
       <c r="A274" s="7">
         <v>335</v>
       </c>
-      <c r="B274" s="15">
+      <c r="B274" s="14">
         <v>1.7256</v>
       </c>
       <c r="C274" s="8">
@@ -5340,7 +5347,7 @@
       <c r="A275" s="7">
         <v>337</v>
       </c>
-      <c r="B275" s="15">
+      <c r="B275" s="14">
         <v>1.8338000000000001</v>
       </c>
       <c r="C275" s="8">
@@ -5356,7 +5363,7 @@
       <c r="A276" s="7">
         <v>338</v>
       </c>
-      <c r="B276" s="15">
+      <c r="B276" s="14">
         <v>2.2408999999999999</v>
       </c>
       <c r="C276" s="8">
@@ -5372,7 +5379,7 @@
       <c r="A277" s="7">
         <v>339</v>
       </c>
-      <c r="B277" s="15">
+      <c r="B277" s="14">
         <v>2.2126999999999999</v>
       </c>
       <c r="C277" s="8">
@@ -5388,7 +5395,7 @@
       <c r="A278" s="7">
         <v>340</v>
       </c>
-      <c r="B278" s="15">
+      <c r="B278" s="14">
         <v>2.4218999999999999</v>
       </c>
       <c r="C278" s="8">
@@ -5404,7 +5411,7 @@
       <c r="A279" s="7">
         <v>341</v>
       </c>
-      <c r="B279" s="15">
+      <c r="B279" s="14">
         <v>2.4758</v>
       </c>
       <c r="C279" s="8">
@@ -5420,7 +5427,7 @@
       <c r="A280" s="7">
         <v>342</v>
       </c>
-      <c r="B280" s="15">
+      <c r="B280" s="14">
         <v>2.3344</v>
       </c>
       <c r="C280" s="8">
@@ -5436,7 +5443,7 @@
       <c r="A281" s="7">
         <v>343</v>
       </c>
-      <c r="B281" s="15">
+      <c r="B281" s="14">
         <v>2.2629999999999999</v>
       </c>
       <c r="C281" s="8">
@@ -5452,7 +5459,7 @@
       <c r="A282" s="7">
         <v>344</v>
       </c>
-      <c r="B282" s="15">
+      <c r="B282" s="14">
         <v>2.2850999999999999</v>
       </c>
       <c r="C282" s="8">
@@ -5468,7 +5475,7 @@
       <c r="A283" s="7">
         <v>346</v>
       </c>
-      <c r="B283" s="15">
+      <c r="B283" s="14">
         <v>2.1728999999999998</v>
       </c>
       <c r="C283" s="8">
@@ -5484,7 +5491,7 @@
       <c r="A284" s="7">
         <v>347</v>
       </c>
-      <c r="B284" s="15">
+      <c r="B284" s="14">
         <v>1.6793</v>
       </c>
       <c r="C284" s="8">
@@ -5500,7 +5507,7 @@
       <c r="A285" s="7">
         <v>348</v>
       </c>
-      <c r="B285" s="15">
+      <c r="B285" s="14">
         <v>1.7587999999999999</v>
       </c>
       <c r="C285" s="8">
@@ -5516,7 +5523,7 @@
       <c r="A286" s="7">
         <v>349</v>
       </c>
-      <c r="B286" s="15">
+      <c r="B286" s="14">
         <v>1.6265000000000001</v>
       </c>
       <c r="C286" s="8">
@@ -5532,7 +5539,7 @@
       <c r="A287" s="7">
         <v>350</v>
       </c>
-      <c r="B287" s="15">
+      <c r="B287" s="14">
         <v>1.5905</v>
       </c>
       <c r="C287" s="8">
@@ -5548,7 +5555,7 @@
       <c r="A288" s="7">
         <v>351</v>
       </c>
-      <c r="B288" s="15">
+      <c r="B288" s="14">
         <v>1.5283</v>
       </c>
       <c r="C288" s="8">
@@ -5564,7 +5571,7 @@
       <c r="A289" s="7">
         <v>352</v>
       </c>
-      <c r="B289" s="15">
+      <c r="B289" s="14">
         <v>1.2929999999999999</v>
       </c>
       <c r="C289" s="8">
@@ -5580,7 +5587,7 @@
       <c r="A290" s="7">
         <v>353</v>
       </c>
-      <c r="B290" s="15">
+      <c r="B290" s="14">
         <v>1.1855</v>
       </c>
       <c r="C290" s="8">
@@ -5596,7 +5603,7 @@
       <c r="A291" s="7">
         <v>354</v>
       </c>
-      <c r="B291" s="15">
+      <c r="B291" s="14">
         <v>1.0974999999999999</v>
       </c>
       <c r="C291" s="8">
@@ -5612,7 +5619,7 @@
       <c r="A292" s="7">
         <v>355</v>
       </c>
-      <c r="B292" s="15">
+      <c r="B292" s="14">
         <v>1.1940999999999999</v>
       </c>
       <c r="C292" s="8">
@@ -5628,7 +5635,7 @@
       <c r="A293" s="7">
         <v>356</v>
       </c>
-      <c r="B293" s="15">
+      <c r="B293" s="14">
         <v>1.5212000000000001</v>
       </c>
       <c r="C293" s="8">
@@ -5644,7 +5651,7 @@
       <c r="A294" s="7">
         <v>357</v>
       </c>
-      <c r="B294" s="15">
+      <c r="B294" s="14">
         <v>1.2877000000000001</v>
       </c>
       <c r="C294" s="8">
@@ -5660,7 +5667,7 @@
       <c r="A295" s="7">
         <v>358</v>
       </c>
-      <c r="B295" s="15">
+      <c r="B295" s="14">
         <v>1.2372000000000001</v>
       </c>
       <c r="C295" s="8">
@@ -5676,7 +5683,7 @@
       <c r="A296" s="7">
         <v>359</v>
       </c>
-      <c r="B296" s="15">
+      <c r="B296" s="14">
         <v>1.3152999999999999</v>
       </c>
       <c r="C296" s="8">
@@ -5692,7 +5699,7 @@
       <c r="A297" s="7">
         <v>360</v>
       </c>
-      <c r="B297" s="15">
+      <c r="B297" s="14">
         <v>1.1992</v>
       </c>
       <c r="C297" s="8">
@@ -5708,7 +5715,7 @@
       <c r="A298" s="7">
         <v>361</v>
       </c>
-      <c r="B298" s="15">
+      <c r="B298" s="14">
         <v>1.0755999999999999</v>
       </c>
       <c r="C298" s="8">
@@ -5724,7 +5731,7 @@
       <c r="A299" s="7">
         <v>362</v>
       </c>
-      <c r="B299" s="15">
+      <c r="B299" s="14">
         <v>1.0672999999999999</v>
       </c>
       <c r="C299" s="8">
@@ -5740,7 +5747,7 @@
       <c r="A300" s="7">
         <v>363</v>
       </c>
-      <c r="B300" s="15">
+      <c r="B300" s="14">
         <v>1.0364</v>
       </c>
       <c r="C300" s="8">
@@ -5756,7 +5763,7 @@
       <c r="A301" s="7">
         <v>364</v>
       </c>
-      <c r="B301" s="15">
+      <c r="B301" s="14">
         <v>1.2870999999999999</v>
       </c>
       <c r="C301" s="8">
@@ -5772,7 +5779,7 @@
       <c r="A302" s="7">
         <v>365</v>
       </c>
-      <c r="B302" s="15">
+      <c r="B302" s="14">
         <v>1.3292999999999999</v>
       </c>
       <c r="C302" s="8">
@@ -44104,7 +44111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -44128,31 +44135,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>7</v>
@@ -44171,10 +44178,10 @@
       <c r="D2" s="9">
         <v>4</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>5.5621551855</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>-5.9037499999999996</v>
       </c>
       <c r="G2" s="9">
@@ -44189,7 +44196,7 @@
       <c r="J2" s="10">
         <v>18.989999999999998</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="16">
         <v>4.8667022388333265</v>
       </c>
     </row>
@@ -44206,10 +44213,10 @@
       <c r="D3" s="9">
         <v>4</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>5.7899885579999992</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>-6.3719999999999999</v>
       </c>
       <c r="G3" s="9">
@@ -44224,7 +44231,7 @@
       <c r="J3" s="10">
         <v>18.835000000000001</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="16">
         <v>4.8840298226666592</v>
       </c>
     </row>
@@ -44241,10 +44248,10 @@
       <c r="D4" s="9">
         <v>3</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>5.530770749666666</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>-6.0502500000000001</v>
       </c>
       <c r="G4" s="9">
@@ -44259,7 +44266,7 @@
       <c r="J4" s="10">
         <v>18.701666666666668</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="16">
         <v>4.8840298226666592</v>
       </c>
     </row>
@@ -44276,10 +44283,10 @@
       <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>4.5525465609999998</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>-5.3812499999999996</v>
       </c>
       <c r="G5" s="9">
@@ -44294,7 +44301,7 @@
       <c r="J5" s="10">
         <v>18.579999999999998</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <v>4.8840298226666592</v>
       </c>
     </row>
@@ -44311,10 +44318,10 @@
       <c r="D6" s="9">
         <v>2</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>5.2891069710000007</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>-4.8572499999999996</v>
       </c>
       <c r="G6" s="9">
@@ -44329,7 +44336,7 @@
       <c r="J6" s="10">
         <v>18.465</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="16">
         <v>4.8840298226666592</v>
       </c>
     </row>
@@ -44346,10 +44353,10 @@
       <c r="D7" s="9">
         <v>3</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>5.6835105726666661</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>-4.9119999999999999</v>
       </c>
       <c r="G7" s="9">
@@ -44364,7 +44371,7 @@
       <c r="J7" s="10">
         <v>18.353333333333335</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="16">
         <v>4.8840298226666592</v>
       </c>
     </row>
@@ -44381,10 +44388,10 @@
       <c r="D8" s="9">
         <v>4</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>5.2240514454999998</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>-4.9132499999999997</v>
       </c>
       <c r="G8" s="9">
@@ -44399,7 +44406,7 @@
       <c r="J8" s="10">
         <v>18.245000000000001</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="16">
         <v>4.8840298226666592</v>
       </c>
     </row>
@@ -44416,10 +44423,10 @@
       <c r="D9" s="9">
         <v>3</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>5.3248091633333337</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>-3.2607499999999998</v>
       </c>
       <c r="G9" s="9">
@@ -44434,7 +44441,7 @@
       <c r="J9" s="10">
         <v>18.166666666666664</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
         <v>4.8580780883333272</v>
       </c>
     </row>
@@ -44451,10 +44458,10 @@
       <c r="D10" s="9">
         <v>3</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>5.3256548869999998</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>7.8000000000000014E-2</v>
       </c>
       <c r="G10" s="9">
@@ -44469,7 +44476,7 @@
       <c r="J10" s="10">
         <v>18.136666666666667</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <v>4.8212087254999982</v>
       </c>
     </row>
@@ -44486,10 +44493,10 @@
       <c r="D11" s="9">
         <v>2</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>5.5198074545000004</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>2.62425</v>
       </c>
       <c r="G11" s="9">
@@ -44504,7 +44511,7 @@
       <c r="J11" s="10">
         <v>18.164999999999999</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="16">
         <v>4.7674109923333337</v>
       </c>
     </row>
@@ -44521,10 +44528,10 @@
       <c r="D12" s="9">
         <v>1</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>5.3512020619999996</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>5.6522500000000004</v>
       </c>
       <c r="G12" s="9">
@@ -44539,7 +44546,7 @@
       <c r="J12" s="10">
         <v>19.513333333333335</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>4.3396675354999914</v>
       </c>
     </row>
@@ -44556,10 +44563,10 @@
       <c r="D13" s="9">
         <v>3</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>5.5978961706666661</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>4.2932500000000005</v>
       </c>
       <c r="G13" s="9">
@@ -44574,7 +44581,7 @@
       <c r="J13" s="10">
         <v>19.528333333333336</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="16">
         <v>4.3479820249999932</v>
       </c>
     </row>
@@ -44591,10 +44598,10 @@
       <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>5.5747887580000004</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>3.2287499999999998</v>
       </c>
       <c r="G14" s="9">
@@ -44609,7 +44616,7 @@
       <c r="J14" s="10">
         <v>19.495000000000001</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="16">
         <v>4.3479820249999932</v>
       </c>
     </row>
@@ -44626,10 +44633,10 @@
       <c r="D15" s="9">
         <v>4</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>5.7442207615000003</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>0.78749999999999998</v>
       </c>
       <c r="G15" s="9">
@@ -44644,7 +44651,7 @@
       <c r="J15" s="10">
         <v>19.408333333333331</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="16">
         <v>4.3742907359999963</v>
       </c>
     </row>
@@ -44661,10 +44668,10 @@
       <c r="D16" s="9">
         <v>3</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>5.5272575349999995</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>-1.0245</v>
       </c>
       <c r="G16" s="9">
@@ -44679,7 +44686,7 @@
       <c r="J16" s="10">
         <v>19.316666666666666</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="16">
         <v>4.4171630089999923</v>
       </c>
     </row>
@@ -44696,10 +44703,10 @@
       <c r="D17" s="9">
         <v>2</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>5.8024962789999996</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <v>-0.79475000000000007</v>
       </c>
       <c r="G17" s="9">
@@ -44714,7 +44721,7 @@
       <c r="J17" s="10">
         <v>19.271666666666668</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="16">
         <v>4.4171630089999923</v>
       </c>
     </row>
@@ -44731,10 +44738,10 @@
       <c r="D18" s="9">
         <v>1</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>5.2451913130000003</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>-0.16550000000000001</v>
       </c>
       <c r="G18" s="9">
@@ -44749,7 +44756,7 @@
       <c r="J18" s="10">
         <v>19.215</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="16">
         <v>4.4377001612499924</v>
       </c>
     </row>
@@ -44766,10 +44773,10 @@
       <c r="D19" s="9">
         <v>1</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>5.8710691720000003</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>-0.11125</v>
       </c>
       <c r="G19" s="9">
@@ -44784,7 +44791,7 @@
       <c r="J19" s="10">
         <v>18.920000000000002</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="16">
         <v>4.4171630089999923</v>
       </c>
     </row>
@@ -44801,10 +44808,10 @@
       <c r="D20" s="9">
         <v>4</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>5.0142670137500005</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>1.0459999999999998</v>
       </c>
       <c r="G20" s="9">
@@ -44819,7 +44826,7 @@
       <c r="J20" s="10">
         <v>18.831666666666667</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="16">
         <v>4.4377001612499924</v>
       </c>
     </row>
@@ -44836,10 +44843,10 @@
       <c r="D21" s="9">
         <v>1</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>4.7396477800000003</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <v>3.0612499999999998</v>
       </c>
       <c r="G21" s="9">
@@ -44854,7 +44861,7 @@
       <c r="J21" s="10">
         <v>18.824999999999999</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="16">
         <v>4.4037078374999954</v>
       </c>
     </row>
@@ -44871,10 +44878,10 @@
       <c r="D22" s="9">
         <v>2</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>4.8685270369999998</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <v>5.3847500000000004</v>
       </c>
       <c r="G22" s="9">
@@ -44889,7 +44896,7 @@
       <c r="J22" s="10">
         <v>18.850000000000001</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="16">
         <v>4.3576054549999981</v>
       </c>
     </row>
@@ -44906,10 +44913,10 @@
       <c r="D23" s="9">
         <v>2</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>5.2991895539999998</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <v>4.3324999999999996</v>
       </c>
       <c r="G23" s="9">
@@ -44924,7 +44931,7 @@
       <c r="J23" s="10">
         <v>18.881666666666668</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="16">
         <v>4.3446437733333312</v>
       </c>
     </row>
@@ -44941,10 +44948,10 @@
       <c r="D24" s="9">
         <v>1</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>5.8078885390000003</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>3.6964999999999999</v>
       </c>
       <c r="G24" s="9">
@@ -44959,7 +44966,7 @@
       <c r="J24" s="10">
         <v>18.876666666666665</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="16">
         <v>4.3742907359999963</v>
       </c>
     </row>
@@ -44976,10 +44983,10 @@
       <c r="D25" s="9">
         <v>1</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <v>5.3344468190000001</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <v>7.7575000000000003</v>
       </c>
       <c r="G25" s="9">
@@ -44994,7 +45001,7 @@
       <c r="J25" s="10">
         <v>18.984999999999999</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="16">
         <v>4.3363292838333294</v>
       </c>
     </row>
@@ -45011,10 +45018,10 @@
       <c r="D26" s="9">
         <v>2</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>4.513193695</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>2.0482500000000003</v>
       </c>
       <c r="G26" s="9">
@@ -45029,7 +45036,7 @@
       <c r="J26" s="10">
         <v>19.701666666666668</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="16">
         <v>4.1157498966666779</v>
       </c>
     </row>
@@ -45046,10 +45053,10 @@
       <c r="D27" s="9">
         <v>3</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="15">
         <v>4.8133106806666675</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="15">
         <v>0.68225000000000002</v>
       </c>
       <c r="G27" s="9">
@@ -45064,7 +45071,7 @@
       <c r="J27" s="10">
         <v>19.616666666666667</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="16">
         <v>4.1285069771666798</v>
       </c>
     </row>
@@ -45081,10 +45088,10 @@
       <c r="D28" s="9">
         <v>5</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <v>4.8086247373999997</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="15">
         <v>-1.1547499999999999</v>
       </c>
       <c r="G28" s="9">
@@ -45099,7 +45106,7 @@
       <c r="J28" s="10">
         <v>19.511666666666667</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="16">
         <v>4.1699389525000043</v>
       </c>
     </row>
@@ -45116,10 +45123,10 @@
       <c r="D29" s="9">
         <v>5</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="15">
         <v>4.7463818827999997</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="15">
         <v>-2.3782500000000004</v>
       </c>
       <c r="G29" s="9">
@@ -45134,7 +45141,7 @@
       <c r="J29" s="10">
         <v>19.405000000000001</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="16">
         <v>4.2198927439999974</v>
       </c>
     </row>
@@ -45151,10 +45158,10 @@
       <c r="D30" s="9">
         <v>3</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="15">
         <v>5.0127654943333333</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <v>-3.2394999999999996</v>
       </c>
       <c r="G30" s="9">
@@ -45169,7 +45176,7 @@
       <c r="J30" s="10">
         <v>19.295000000000002</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="16">
         <v>4.2376101224999925</v>
       </c>
     </row>
@@ -45186,10 +45193,10 @@
       <c r="D31" s="9">
         <v>3</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <v>4.2484874836666657</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="15">
         <v>-3.7752499999999998</v>
       </c>
       <c r="G31" s="9">
@@ -45204,7 +45211,7 @@
       <c r="J31" s="10">
         <v>19.178333333333335</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="16">
         <v>4.2666277126666614</v>
       </c>
     </row>
@@ -45221,10 +45228,10 @@
       <c r="D32" s="9">
         <v>5</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <v>4.8053341879999998</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="15">
         <v>-4.1042500000000004</v>
       </c>
       <c r="G32" s="9">
@@ -45239,7 +45246,7 @@
       <c r="J32" s="10">
         <v>19.048333333333332</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="16">
         <v>4.2928801216666699</v>
       </c>
     </row>
@@ -45256,10 +45263,10 @@
       <c r="D33" s="9">
         <v>5</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="15">
         <v>4.6571880038</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="15">
         <v>-4.2422500000000003</v>
       </c>
       <c r="G33" s="9">
@@ -45274,7 +45281,7 @@
       <c r="J33" s="10">
         <v>18.921666666666667</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="16">
         <v>4.3092541288333361</v>
       </c>
     </row>
@@ -45291,10 +45298,10 @@
       <c r="D34" s="9">
         <v>5</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>4.6739457120000001</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <v>-4.8019999999999996</v>
       </c>
       <c r="G34" s="9">
@@ -45309,7 +45316,7 @@
       <c r="J34" s="10">
         <v>18.781666666666666</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="16">
         <v>4.3353798259999978</v>
       </c>
     </row>
@@ -45326,10 +45333,10 @@
       <c r="D35" s="9">
         <v>5</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <v>4.6264970093999995</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="15">
         <v>-5.1660000000000004</v>
       </c>
       <c r="G35" s="9">
@@ -45344,7 +45351,7 @@
       <c r="J35" s="10">
         <v>18.653333333333336</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="16">
         <v>4.3700722589999996</v>
       </c>
     </row>
@@ -45361,10 +45368,10 @@
       <c r="D36" s="9">
         <v>5</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <v>4.5005871547999998</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="15">
         <v>-4.8012499999999996</v>
       </c>
       <c r="G36" s="9">
@@ -45379,7 +45386,7 @@
       <c r="J36" s="10">
         <v>18.54</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="16">
         <v>4.3781431589999995</v>
       </c>
     </row>
@@ -45396,10 +45403,10 @@
       <c r="D37" s="9">
         <v>4</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="15">
         <v>4.8507268080000001</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="15">
         <v>-4.4907500000000002</v>
       </c>
       <c r="G37" s="9">
@@ -45414,7 +45421,7 @@
       <c r="J37" s="10">
         <v>18.428333333333335</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="16">
         <v>4.3614015760000013</v>
       </c>
     </row>
@@ -45431,10 +45438,10 @@
       <c r="D38" s="9">
         <v>3</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="15">
         <v>5.153524365</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="15">
         <v>-2.8840000000000003</v>
       </c>
       <c r="G38" s="9">
@@ -45449,7 +45456,7 @@
       <c r="J38" s="10">
         <v>18.333333333333336</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="16">
         <v>4.3403198009999997</v>
       </c>
     </row>
@@ -45466,10 +45473,10 @@
       <c r="D39" s="9">
         <v>2</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="15">
         <v>4.2522537864999999</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="15">
         <v>-0.91249999999999998</v>
       </c>
       <c r="G39" s="9">
@@ -45484,7 +45491,7 @@
       <c r="J39" s="10">
         <v>18.28</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="16">
         <v>4.2974728438333329</v>
       </c>
     </row>
@@ -45501,10 +45508,10 @@
       <c r="D40" s="9">
         <v>1</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="15">
         <v>4.0807730270000002</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="15">
         <v>2.0237500000000002</v>
       </c>
       <c r="G40" s="9">
@@ -45519,7 +45526,7 @@
       <c r="J40" s="10">
         <v>18.268333333333334</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K40" s="16">
         <v>4.2083657114999928</v>
       </c>
     </row>
@@ -45536,10 +45543,10 @@
       <c r="D41" s="9">
         <v>1</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="15">
         <v>3.986962176</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="15">
         <v>0.8254999999999999</v>
       </c>
       <c r="G41" s="9">
@@ -45554,7 +45561,7 @@
       <c r="J41" s="10">
         <v>18.588333333333331</v>
       </c>
-      <c r="K41" s="17">
+      <c r="K41" s="16">
         <v>4.11276051050001</v>
       </c>
     </row>
@@ -45571,10 +45578,10 @@
       <c r="D42" s="9">
         <v>1</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="15">
         <v>4.0454078310000003</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="15">
         <v>-0.77974999999999994</v>
       </c>
       <c r="G42" s="9">
@@ -45589,7 +45596,7 @@
       <c r="J42" s="10">
         <v>18.536666666666669</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K42" s="16">
         <v>4.1458833826666801</v>
       </c>
     </row>
@@ -45606,10 +45613,10 @@
       <c r="D43" s="9">
         <v>3</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="15">
         <v>4.139079815333333</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="15">
         <v>-2.2167500000000002</v>
       </c>
       <c r="G43" s="9">
@@ -45624,7 +45631,7 @@
       <c r="J43" s="10">
         <v>18.45</v>
       </c>
-      <c r="K43" s="17">
+      <c r="K43" s="16">
         <v>4.1878171898333338</v>
       </c>
     </row>
@@ -45641,10 +45648,10 @@
       <c r="D44" s="9">
         <v>4</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="15">
         <v>4.2938979467500005</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="15">
         <v>-3.4925000000000002</v>
       </c>
       <c r="G44" s="9">
@@ -45659,7 +45666,7 @@
       <c r="J44" s="10">
         <v>18.348333333333333</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="16">
         <v>4.2475034609999938</v>
       </c>
     </row>
@@ -45676,10 +45683,10 @@
       <c r="D45" s="9">
         <v>2</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="15">
         <v>3.6543289630000002</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="15">
         <v>-4.7977499999999997</v>
       </c>
       <c r="G45" s="9">
@@ -45694,7 +45701,7 @@
       <c r="J45" s="10">
         <v>18.22</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="16">
         <v>4.3159144271666676</v>
       </c>
     </row>
@@ -45711,10 +45718,10 @@
       <c r="D46" s="9">
         <v>4</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="15">
         <v>3.9979023649999998</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="15">
         <v>-5.8384999999999998</v>
       </c>
       <c r="G46" s="9">
@@ -45729,7 +45736,7 @@
       <c r="J46" s="10">
         <v>18.085000000000001</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K46" s="16">
         <v>4.3738393774999995</v>
       </c>
     </row>
@@ -45746,10 +45753,10 @@
       <c r="D47" s="9">
         <v>4</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="15">
         <v>4.0823643714999998</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="15">
         <v>-7.2240000000000002</v>
       </c>
       <c r="G47" s="9">
@@ -45764,7 +45771,7 @@
       <c r="J47" s="10">
         <v>17.916666666666668</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K47" s="16">
         <v>4.4767104803333275</v>
       </c>
     </row>
@@ -45781,10 +45788,10 @@
       <c r="D48" s="9">
         <v>4</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="15">
         <v>4.1127864195000008</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="15">
         <v>-7.8250000000000002</v>
       </c>
       <c r="G48" s="9">
@@ -45799,7 +45806,7 @@
       <c r="J48" s="10">
         <v>17.754999999999999</v>
       </c>
-      <c r="K48" s="17">
+      <c r="K48" s="16">
         <v>4.5948448359999912</v>
       </c>
     </row>
@@ -45816,10 +45823,10 @@
       <c r="D49" s="9">
         <v>4</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="15">
         <v>3.7930508002500001</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="15">
         <v>-7.67</v>
       </c>
       <c r="G49" s="9">
@@ -45834,7 +45841,7 @@
       <c r="J49" s="10">
         <v>17.62</v>
       </c>
-      <c r="K49" s="17">
+      <c r="K49" s="16">
         <v>4.6143005493333291</v>
       </c>
     </row>
@@ -45851,10 +45858,10 @@
       <c r="D50" s="9">
         <v>3</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="15">
         <v>4.2672285236666667</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="15">
         <v>-7.8025000000000002</v>
       </c>
       <c r="G50" s="9">
@@ -45869,7 +45876,7 @@
       <c r="J50" s="10">
         <v>17.46</v>
       </c>
-      <c r="K50" s="17">
+      <c r="K50" s="16">
         <v>4.642396069166665</v>
       </c>
     </row>
@@ -45886,10 +45893,10 @@
       <c r="D51" s="9">
         <v>5</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="15">
         <v>3.7714566110000001</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="15">
         <v>-7.85</v>
       </c>
       <c r="G51" s="9">
@@ -45904,7 +45911,7 @@
       <c r="J51" s="10">
         <v>17.309999999999999</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K51" s="16">
         <v>4.698847509000001</v>
       </c>
     </row>
@@ -45921,10 +45928,10 @@
       <c r="D52" s="9">
         <v>2</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="15">
         <v>3.5146666225000001</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="15">
         <v>-7.66</v>
       </c>
       <c r="G52" s="9">
@@ -45939,7 +45946,7 @@
       <c r="J52" s="10">
         <v>17.170000000000002</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K52" s="16">
         <v>4.7129934039999997</v>
       </c>
     </row>
@@ -45956,10 +45963,10 @@
       <c r="D53" s="9">
         <v>3</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="15">
         <v>4.3167936726666669</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" s="15">
         <v>-5.8177500000000002</v>
       </c>
       <c r="G53" s="9">
@@ -45974,7 +45981,7 @@
       <c r="J53" s="10">
         <v>17.068333333333335</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="16">
         <v>4.6255689204999957</v>
       </c>
     </row>
@@ -45991,10 +45998,10 @@
       <c r="D54" s="9">
         <v>2</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="15">
         <v>3.8949392375</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="15">
         <v>-2.2754999999999996</v>
       </c>
       <c r="G54" s="9">
@@ -46009,7 +46016,7 @@
       <c r="J54" s="10">
         <v>17.026666666666667</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K54" s="16">
         <v>4.4297910133333325</v>
       </c>
     </row>
@@ -46026,10 +46033,10 @@
       <c r="D55" s="9">
         <v>1</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="15">
         <v>3.6075982510000002</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" s="15">
         <v>4.83575</v>
       </c>
       <c r="G55" s="9">
@@ -46044,7 +46051,7 @@
       <c r="J55" s="10">
         <v>18.243333333333332</v>
       </c>
-      <c r="K55" s="17">
+      <c r="K55" s="16">
         <v>3.9053007995000018</v>
       </c>
     </row>
@@ -46061,10 +46068,10 @@
       <c r="D56" s="9">
         <v>1</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="15">
         <v>3.8678382500000001</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="15">
         <v>3.1589999999999998</v>
       </c>
       <c r="G56" s="9">
@@ -46079,7 +46086,7 @@
       <c r="J56" s="10">
         <v>18.241666666666667</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K56" s="16">
         <v>3.9902835565000068</v>
       </c>
     </row>
@@ -46096,10 +46103,10 @@
       <c r="D57" s="9">
         <v>1</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="15">
         <v>3.7852698180000002</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="15">
         <v>1.169</v>
       </c>
       <c r="G57" s="9">
@@ -46114,7 +46121,7 @@
       <c r="J57" s="10">
         <v>18.226666666666667</v>
       </c>
-      <c r="K57" s="17">
+      <c r="K57" s="16">
         <v>4.0271269306666726</v>
       </c>
     </row>
@@ -46131,10 +46138,10 @@
       <c r="D58" s="9">
         <v>3</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="15">
         <v>3.8947030883333333</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" s="15">
         <v>0.93325000000000002</v>
       </c>
       <c r="G58" s="9">
@@ -46149,7 +46156,7 @@
       <c r="J58" s="10">
         <v>18.211666666666666</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K58" s="16">
         <v>4.0557033293333378</v>
       </c>
     </row>
@@ -46166,10 +46173,10 @@
       <c r="D59" s="9">
         <v>3</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="15">
         <v>3.9383209306666664</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="15">
         <v>-1.0845</v>
       </c>
       <c r="G59" s="9">
@@ -46184,7 +46191,7 @@
       <c r="J59" s="10">
         <v>18.093333333333334</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59" s="16">
         <v>4.1141013305000085</v>
       </c>
     </row>
@@ -46201,10 +46208,10 @@
       <c r="D60" s="9">
         <v>4</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="15">
         <v>4.2039481839999997</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="15">
         <v>-2.9192499999999999</v>
       </c>
       <c r="G60" s="9">
@@ -46219,7 +46226,7 @@
       <c r="J60" s="10">
         <v>17.98</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="16">
         <v>4.2068075298333305</v>
       </c>
     </row>
@@ -46236,10 +46243,10 @@
       <c r="D61" s="9">
         <v>3</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="15">
         <v>4.1165975016666669</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="15">
         <v>-3.8407499999999999</v>
       </c>
       <c r="G61" s="9">
@@ -46254,7 +46261,7 @@
       <c r="J61" s="10">
         <v>17.885000000000002</v>
       </c>
-      <c r="K61" s="17">
+      <c r="K61" s="16">
         <v>4.2932177104999969</v>
       </c>
     </row>
@@ -46271,10 +46278,10 @@
       <c r="D62" s="9">
         <v>7</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="15">
         <v>3.7394507284285714</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="15">
         <v>-4.7557500000000008</v>
       </c>
       <c r="G62" s="9">
@@ -46289,7 +46296,7 @@
       <c r="J62" s="10">
         <v>17.761666666666667</v>
       </c>
-      <c r="K62" s="17">
+      <c r="K62" s="16">
         <v>4.386465730833331</v>
       </c>
     </row>
@@ -46306,10 +46313,10 @@
       <c r="D63" s="9">
         <v>7</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63" s="15">
         <v>3.7154800199999998</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F63" s="15">
         <v>-5.1877500000000003</v>
       </c>
       <c r="G63" s="9">
@@ -46324,7 +46331,7 @@
       <c r="J63" s="10">
         <v>17.638333333333335</v>
       </c>
-      <c r="K63" s="17">
+      <c r="K63" s="16">
         <v>4.470413522333331</v>
       </c>
     </row>
@@ -46341,10 +46348,10 @@
       <c r="D64" s="9">
         <v>8</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="15">
         <v>4.0189636342499995</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="15">
         <v>-5.5670000000000002</v>
       </c>
       <c r="G64" s="9">
@@ -46359,7 +46366,7 @@
       <c r="J64" s="10">
         <v>17.5</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K64" s="16">
         <v>4.5253401693333233</v>
       </c>
     </row>
@@ -46376,10 +46383,10 @@
       <c r="D65" s="9">
         <v>8</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="15">
         <v>4.2083432812499995</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F65" s="15">
         <v>-5.8342499999999999</v>
       </c>
       <c r="G65" s="9">
@@ -46394,7 +46401,7 @@
       <c r="J65" s="10">
         <v>17.364999999999998</v>
       </c>
-      <c r="K65" s="17">
+      <c r="K65" s="16">
         <v>4.5973337583333258</v>
       </c>
     </row>
@@ -46411,10 +46418,10 @@
       <c r="D66" s="9">
         <v>8</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="15">
         <v>4.1375757540000002</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="15">
         <v>-5.6512500000000001</v>
       </c>
       <c r="G66" s="9">
@@ -46429,7 +46436,7 @@
       <c r="J66" s="10">
         <v>17.236666666666665</v>
       </c>
-      <c r="K66" s="17">
+      <c r="K66" s="16">
         <v>4.611208196666662</v>
       </c>
     </row>
@@ -46446,10 +46453,10 @@
       <c r="D67" s="9">
         <v>8</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E67" s="15">
         <v>4.0868196064999998</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="15">
         <v>-5.4485000000000001</v>
       </c>
       <c r="G67" s="9">
@@ -46464,7 +46471,7 @@
       <c r="J67" s="10">
         <v>17.12</v>
       </c>
-      <c r="K67" s="17">
+      <c r="K67" s="16">
         <v>4.6476477954999957</v>
       </c>
     </row>
@@ -46481,10 +46488,10 @@
       <c r="D68" s="9">
         <v>7</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="15">
         <v>3.4151167875714288</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="15">
         <v>-5.4415000000000004</v>
       </c>
       <c r="G68" s="9">
@@ -46499,7 +46506,7 @@
       <c r="J68" s="10">
         <v>17.004999999999999</v>
       </c>
-      <c r="K68" s="17">
+      <c r="K68" s="16">
         <v>4.6532461649999943</v>
       </c>
     </row>
@@ -46516,10 +46523,10 @@
       <c r="D69" s="9">
         <v>8</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="15">
         <v>4.0352115138750007</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F69" s="15">
         <v>-4.3062500000000004</v>
       </c>
       <c r="G69" s="9">
@@ -46534,7 +46541,7 @@
       <c r="J69" s="10">
         <v>16.918333333333333</v>
       </c>
-      <c r="K69" s="17">
+      <c r="K69" s="16">
         <v>4.6028566154999933</v>
       </c>
     </row>
@@ -46551,10 +46558,10 @@
       <c r="D70" s="9">
         <v>8</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="15">
         <v>3.9189037416249999</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="15">
         <v>-1.3714999999999999</v>
       </c>
       <c r="G70" s="9">
@@ -46569,7 +46576,7 @@
       <c r="J70" s="10">
         <v>16.878333333333334</v>
       </c>
-      <c r="K70" s="17">
+      <c r="K70" s="16">
         <v>4.4104710786666654</v>
       </c>
     </row>
@@ -46586,10 +46593,10 @@
       <c r="D71" s="9">
         <v>4</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="15">
         <v>3.5949753449999999</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F71" s="15">
         <v>6.8250000000000005E-2</v>
       </c>
       <c r="G71" s="9">
@@ -46604,7 +46611,7 @@
       <c r="J71" s="10">
         <v>16.883333333333333</v>
       </c>
-      <c r="K71" s="17">
+      <c r="K71" s="16">
         <v>4.2587205024999957</v>
       </c>
     </row>
@@ -46621,10 +46628,10 @@
       <c r="D72" s="9">
         <v>1</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72" s="15">
         <v>2.6685197760000001</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F72" s="15">
         <v>1.0654999999999999</v>
       </c>
       <c r="G72" s="9">
@@ -46639,7 +46646,7 @@
       <c r="J72" s="10">
         <v>16.903333333333332</v>
       </c>
-      <c r="K72" s="17">
+      <c r="K72" s="16">
         <v>4.2068075298333305</v>
       </c>
     </row>
@@ -46656,10 +46663,10 @@
       <c r="D73" s="9">
         <v>1</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E73" s="15">
         <v>2.3934111589999998</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="15">
         <v>4.3062500000000004</v>
       </c>
       <c r="G73" s="9">
@@ -46674,7 +46681,7 @@
       <c r="J73" s="10">
         <v>16.976666666666667</v>
       </c>
-      <c r="K73" s="17">
+      <c r="K73" s="16">
         <v>4.0385943180000066</v>
       </c>
     </row>
@@ -46691,10 +46698,10 @@
       <c r="D74" s="9">
         <v>1</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="15">
         <v>2.7317447989999999</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="15">
         <v>3.6152499999999996</v>
       </c>
       <c r="G74" s="9">
@@ -46709,7 +46716,7 @@
       <c r="J74" s="10">
         <v>17.87833333333333</v>
       </c>
-      <c r="K74" s="17">
+      <c r="K74" s="16">
         <v>3.8894964179999993</v>
       </c>
     </row>
@@ -46726,10 +46733,10 @@
       <c r="D75" s="9">
         <v>5</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75" s="15">
         <v>3.6699782898000004</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F75" s="15">
         <v>2.8904999999999998</v>
       </c>
       <c r="G75" s="9">
@@ -46744,7 +46751,7 @@
       <c r="J75" s="10">
         <v>17.893333333333331</v>
       </c>
-      <c r="K75" s="17">
+      <c r="K75" s="16">
         <v>3.9505573610000013</v>
       </c>
     </row>
@@ -46761,10 +46768,10 @@
       <c r="D76" s="9">
         <v>6</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E76" s="15">
         <v>3.6901646998333333</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F76" s="15">
         <v>0.31649999999999995</v>
       </c>
       <c r="G76" s="9">
@@ -46779,7 +46786,7 @@
       <c r="J76" s="10">
         <v>17.80833333333333</v>
       </c>
-      <c r="K76" s="17">
+      <c r="K76" s="16">
         <v>3.9844122703333382</v>
       </c>
     </row>
@@ -46796,10 +46803,10 @@
       <c r="D77" s="9">
         <v>7</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E77" s="15">
         <v>3.6625595225714287</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F77" s="15">
         <v>-1.0529999999999999</v>
       </c>
       <c r="G77" s="9">
@@ -46814,7 +46821,7 @@
       <c r="J77" s="10">
         <v>17.751666666666665</v>
       </c>
-      <c r="K77" s="17">
+      <c r="K77" s="16">
         <v>4.1234041105000019</v>
       </c>
     </row>
@@ -46831,10 +46838,10 @@
       <c r="D78" s="9">
         <v>7</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E78" s="15">
         <v>3.625545505285714</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F78" s="15">
         <v>-2.4204999999999997</v>
       </c>
       <c r="G78" s="9">
@@ -46849,7 +46856,7 @@
       <c r="J78" s="10">
         <v>17.670000000000002</v>
       </c>
-      <c r="K78" s="17">
+      <c r="K78" s="16">
         <v>4.2041837133333306</v>
       </c>
     </row>
@@ -46866,10 +46873,10 @@
       <c r="D79" s="9">
         <v>6</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E79" s="15">
         <v>3.6848549601666662</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F79" s="15">
         <v>-3.4285000000000001</v>
       </c>
       <c r="G79" s="9">
@@ -46884,7 +46891,7 @@
       <c r="J79" s="10">
         <v>17.566666666666666</v>
       </c>
-      <c r="K79" s="17">
+      <c r="K79" s="16">
         <v>4.3087846049999996</v>
       </c>
     </row>
@@ -46901,10 +46908,10 @@
       <c r="D80" s="9">
         <v>7</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E80" s="15">
         <v>3.6773976080000002</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F80" s="15">
         <v>-3.3765000000000001</v>
       </c>
       <c r="G80" s="9">
@@ -46919,7 +46926,7 @@
       <c r="J80" s="10">
         <v>17.478333333333332</v>
       </c>
-      <c r="K80" s="17">
+      <c r="K80" s="16">
         <v>4.3436227859999974</v>
       </c>
     </row>
@@ -46936,10 +46943,10 @@
       <c r="D81" s="9">
         <v>7</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E81" s="15">
         <v>4.2849559564285711</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F81" s="15">
         <v>-2.9107500000000002</v>
       </c>
       <c r="G81" s="9">
@@ -46954,7 +46961,7 @@
       <c r="J81" s="10">
         <v>17.38</v>
       </c>
-      <c r="K81" s="17">
+      <c r="K81" s="16">
         <v>4.3648029476666661</v>
       </c>
     </row>
@@ -46971,10 +46978,10 @@
       <c r="D82" s="9">
         <v>7</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E82" s="15">
         <v>4.403472418999999</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F82" s="15">
         <v>-2.2170000000000001</v>
       </c>
       <c r="G82" s="9">
@@ -46989,7 +46996,7 @@
       <c r="J82" s="10">
         <v>17.306666666666665</v>
       </c>
-      <c r="K82" s="17">
+      <c r="K82" s="16">
         <v>4.3352801454999987</v>
       </c>
     </row>
@@ -47006,10 +47013,10 @@
       <c r="D83" s="9">
         <v>6</v>
       </c>
-      <c r="E83" s="16">
+      <c r="E83" s="15">
         <v>5.1515735303333337</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F83" s="15">
         <v>-1.89425</v>
       </c>
       <c r="G83" s="9">
@@ -47024,7 +47031,7 @@
       <c r="J83" s="10">
         <v>17.233333333333334</v>
       </c>
-      <c r="K83" s="17">
+      <c r="K83" s="16">
         <v>4.3321339999999964</v>
       </c>
     </row>
@@ -47041,10 +47048,10 @@
       <c r="D84" s="9">
         <v>6</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E84" s="15">
         <v>6.0099740608333336</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F84" s="15">
         <v>-4.6429999999999998</v>
       </c>
       <c r="G84" s="9">
@@ -47059,7 +47066,7 @@
       <c r="J84" s="10">
         <v>16.938333333333333</v>
       </c>
-      <c r="K84" s="17">
+      <c r="K84" s="16">
         <v>5.4905950199999962</v>
       </c>
     </row>
@@ -47076,10 +47083,10 @@
       <c r="D85" s="9">
         <v>6</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E85" s="15">
         <v>5.3252086580000002</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F85" s="15">
         <v>-4.6797500000000003</v>
       </c>
       <c r="G85" s="9">
@@ -47094,7 +47101,7 @@
       <c r="J85" s="10">
         <v>16.443333333333332</v>
       </c>
-      <c r="K85" s="17">
+      <c r="K85" s="16">
         <v>9.0150680125000058</v>
       </c>
     </row>
@@ -47111,10 +47118,10 @@
       <c r="D86" s="9">
         <v>7</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E86" s="15">
         <v>5.8739135682857153</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F86" s="15">
         <v>-2.5022500000000001</v>
       </c>
       <c r="G86" s="9">
@@ -47129,7 +47136,7 @@
       <c r="J86" s="10">
         <v>16.468333333333334</v>
       </c>
-      <c r="K86" s="17">
+      <c r="K86" s="16">
         <v>9.4097661945000066</v>
       </c>
     </row>
@@ -47146,10 +47153,10 @@
       <c r="D87" s="9">
         <v>6</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E87" s="15">
         <v>5.394949334333333</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F87" s="15">
         <v>-2.3085</v>
       </c>
       <c r="G87" s="9">
@@ -47164,7 +47171,7 @@
       <c r="J87" s="10">
         <v>16.48833333333333</v>
       </c>
-      <c r="K87" s="17">
+      <c r="K87" s="16">
         <v>9.6625345183333273</v>
       </c>
     </row>
@@ -47181,10 +47188,10 @@
       <c r="D88" s="9">
         <v>6</v>
       </c>
-      <c r="E88" s="16">
+      <c r="E88" s="15">
         <v>5.4973212800000004</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F88" s="15">
         <v>-2.3614999999999999</v>
       </c>
       <c r="G88" s="9">
@@ -47199,7 +47206,7 @@
       <c r="J88" s="10">
         <v>16.484999999999999</v>
       </c>
-      <c r="K88" s="17">
+      <c r="K88" s="16">
         <v>10.198607210833325</v>
       </c>
     </row>
@@ -47216,10 +47223,10 @@
       <c r="D89" s="9">
         <v>1</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E89" s="15">
         <v>4.6745511869999996</v>
       </c>
-      <c r="F89" s="16">
+      <c r="F89" s="15">
         <v>0.94800000000000006</v>
       </c>
       <c r="G89" s="9">
@@ -47234,7 +47241,7 @@
       <c r="J89" s="10">
         <v>16.508333333333333</v>
       </c>
-      <c r="K89" s="17">
+      <c r="K89" s="16">
         <v>10.407041614166669</v>
       </c>
     </row>
@@ -47251,10 +47258,10 @@
       <c r="D90" s="9">
         <v>4</v>
       </c>
-      <c r="E90" s="16">
+      <c r="E90" s="15">
         <v>5.7175003755000002</v>
       </c>
-      <c r="F90" s="16">
+      <c r="F90" s="15">
         <v>16.22</v>
       </c>
       <c r="G90" s="9">
@@ -47269,7 +47276,7 @@
       <c r="J90" s="10">
         <v>18.093333333333334</v>
       </c>
-      <c r="K90" s="17">
+      <c r="K90" s="16">
         <v>9.6015230210000038</v>
       </c>
     </row>
@@ -47286,10 +47293,10 @@
       <c r="D91" s="9">
         <v>7</v>
       </c>
-      <c r="E91" s="16">
+      <c r="E91" s="15">
         <v>5.933857610285715</v>
       </c>
-      <c r="F91" s="16">
+      <c r="F91" s="15">
         <v>11.015000000000001</v>
       </c>
       <c r="G91" s="9">
@@ -47304,7 +47311,7 @@
       <c r="J91" s="10">
         <v>18.18</v>
       </c>
-      <c r="K91" s="17">
+      <c r="K91" s="16">
         <v>9.5414915593333269</v>
       </c>
     </row>
@@ -47321,10 +47328,10 @@
       <c r="D92" s="9">
         <v>3</v>
       </c>
-      <c r="E92" s="16">
+      <c r="E92" s="15">
         <v>6.0845939209999997</v>
       </c>
-      <c r="F92" s="16">
+      <c r="F92" s="15">
         <v>8.0175000000000001</v>
       </c>
       <c r="G92" s="9">
@@ -47339,7 +47346,7 @@
       <c r="J92" s="10">
         <v>18.216666666666669</v>
       </c>
-      <c r="K92" s="17">
+      <c r="K92" s="16">
         <v>9.4849067400000031</v>
       </c>
     </row>
@@ -47356,10 +47363,10 @@
       <c r="D93" s="9">
         <v>4</v>
       </c>
-      <c r="E93" s="16">
+      <c r="E93" s="15">
         <v>6.4970435865000002</v>
       </c>
-      <c r="F93" s="16">
+      <c r="F93" s="15">
         <v>5.4737499999999999</v>
       </c>
       <c r="G93" s="9">
@@ -47374,7 +47381,7 @@
       <c r="J93" s="10">
         <v>18.276666666666667</v>
       </c>
-      <c r="K93" s="17">
+      <c r="K93" s="16">
         <v>9.425413808333337</v>
       </c>
     </row>
@@ -47391,10 +47398,10 @@
       <c r="D94" s="9">
         <v>7</v>
       </c>
-      <c r="E94" s="16">
+      <c r="E94" s="15">
         <v>6.0390050747142867</v>
       </c>
-      <c r="F94" s="16">
+      <c r="F94" s="15">
         <v>4.7852500000000004</v>
       </c>
       <c r="G94" s="9">
@@ -47409,7 +47416,7 @@
       <c r="J94" s="10">
         <v>18.271666666666665</v>
       </c>
-      <c r="K94" s="17">
+      <c r="K94" s="16">
         <v>9.3893817050000052</v>
       </c>
     </row>
@@ -47426,10 +47433,10 @@
       <c r="D95" s="9">
         <v>4</v>
       </c>
-      <c r="E95" s="16">
+      <c r="E95" s="15">
         <v>5.6749831615000002</v>
       </c>
-      <c r="F95" s="16">
+      <c r="F95" s="15">
         <v>3.4430000000000001</v>
       </c>
       <c r="G95" s="9">
@@ -47444,7 +47451,7 @@
       <c r="J95" s="10">
         <v>18.25333333333333</v>
       </c>
-      <c r="K95" s="17">
+      <c r="K95" s="16">
         <v>9.2294181837500098</v>
       </c>
     </row>
@@ -47461,10 +47468,10 @@
       <c r="D96" s="9">
         <v>4</v>
       </c>
-      <c r="E96" s="16">
+      <c r="E96" s="15">
         <v>6.2353526887500008</v>
       </c>
-      <c r="F96" s="16">
+      <c r="F96" s="15">
         <v>2.0434999999999999</v>
       </c>
       <c r="G96" s="9">
@@ -47479,7 +47486,7 @@
       <c r="J96" s="10">
         <v>18.218333333333334</v>
       </c>
-      <c r="K96" s="17">
+      <c r="K96" s="16">
         <v>9.3658867050000083</v>
       </c>
     </row>
@@ -47496,10 +47503,10 @@
       <c r="D97" s="9">
         <v>5</v>
       </c>
-      <c r="E97" s="16">
+      <c r="E97" s="15">
         <v>6.014404912799999</v>
       </c>
-      <c r="F97" s="16">
+      <c r="F97" s="15">
         <v>0.76049999999999995</v>
       </c>
       <c r="G97" s="9">
@@ -47514,7 +47521,7 @@
       <c r="J97" s="10">
         <v>18.13</v>
       </c>
-      <c r="K97" s="17">
+      <c r="K97" s="16">
         <v>9.3304123666666694</v>
       </c>
     </row>
@@ -47531,10 +47538,10 @@
       <c r="D98" s="9">
         <v>4</v>
       </c>
-      <c r="E98" s="16">
+      <c r="E98" s="15">
         <v>6.2695254052500005</v>
       </c>
-      <c r="F98" s="16">
+      <c r="F98" s="15">
         <v>0.81725000000000003</v>
       </c>
       <c r="G98" s="9">
@@ -47549,7 +47556,7 @@
       <c r="J98" s="10">
         <v>18.091666666666669</v>
       </c>
-      <c r="K98" s="17">
+      <c r="K98" s="16">
         <v>9.158918778750003</v>
       </c>
     </row>
@@ -47566,10 +47573,10 @@
       <c r="D99" s="9">
         <v>2</v>
       </c>
-      <c r="E99" s="16">
+      <c r="E99" s="15">
         <v>6.4918202049999998</v>
       </c>
-      <c r="F99" s="16">
+      <c r="F99" s="15">
         <v>0.35524999999999995</v>
       </c>
       <c r="G99" s="9">
@@ -47584,7 +47591,7 @@
       <c r="J99" s="10">
         <v>17.998333333333335</v>
       </c>
-      <c r="K99" s="17">
+      <c r="K99" s="16">
         <v>9.1298465287500079</v>
       </c>
     </row>
@@ -47601,10 +47608,10 @@
       <c r="D100" s="9">
         <v>1</v>
       </c>
-      <c r="E100" s="16">
+      <c r="E100" s="15">
         <v>7.0821870000000002</v>
       </c>
-      <c r="F100" s="16">
+      <c r="F100" s="15">
         <v>2.7999999999999997E-2</v>
       </c>
       <c r="G100" s="9">
@@ -47619,7 +47626,7 @@
       <c r="J100" s="10">
         <v>17.95</v>
       </c>
-      <c r="K100" s="17">
+      <c r="K100" s="16">
         <v>9.2597650200000032</v>
       </c>
     </row>
@@ -47636,10 +47643,10 @@
       <c r="D101" s="9">
         <v>3</v>
       </c>
-      <c r="E101" s="16">
+      <c r="E101" s="15">
         <v>6.5433301896666665</v>
       </c>
-      <c r="F101" s="16">
+      <c r="F101" s="15">
         <v>2.327</v>
       </c>
       <c r="G101" s="9">
@@ -47654,7 +47661,7 @@
       <c r="J101" s="10">
         <v>17.891666666666666</v>
       </c>
-      <c r="K101" s="17">
+      <c r="K101" s="16">
         <v>9.0458414383333299</v>
       </c>
     </row>
@@ -47671,10 +47678,10 @@
       <c r="D102" s="9">
         <v>5</v>
       </c>
-      <c r="E102" s="16">
+      <c r="E102" s="15">
         <v>6.3077360913999998</v>
       </c>
-      <c r="F102" s="16">
+      <c r="F102" s="15">
         <v>7.0057499999999999</v>
       </c>
       <c r="G102" s="9">
@@ -47689,7 +47696,7 @@
       <c r="J102" s="10">
         <v>17.918333333333333</v>
       </c>
-      <c r="K102" s="17">
+      <c r="K102" s="16">
         <v>9.1131718039999932</v>
       </c>
     </row>
@@ -47706,10 +47713,10 @@
       <c r="D103" s="9">
         <v>1</v>
       </c>
-      <c r="E103" s="16">
+      <c r="E103" s="15">
         <v>4.9173669069999999</v>
       </c>
-      <c r="F103" s="16">
+      <c r="F103" s="15">
         <v>10.0875</v>
       </c>
       <c r="G103" s="9">
@@ -47724,7 +47731,7 @@
       <c r="J103" s="10">
         <v>17.984999999999999</v>
       </c>
-      <c r="K103" s="17">
+      <c r="K103" s="16">
         <v>9.0129627158333285</v>
       </c>
     </row>
@@ -47741,10 +47748,10 @@
       <c r="D104" s="9">
         <v>6</v>
       </c>
-      <c r="E104" s="16">
+      <c r="E104" s="15">
         <v>6.8277403176666667</v>
       </c>
-      <c r="F104" s="16">
+      <c r="F104" s="15">
         <v>13.675000000000001</v>
       </c>
       <c r="G104" s="9">
@@ -47759,7 +47766,7 @@
       <c r="J104" s="10">
         <v>19.12833333333333</v>
       </c>
-      <c r="K104" s="17">
+      <c r="K104" s="16">
         <v>8.1170390458333266</v>
       </c>
     </row>
@@ -47776,10 +47783,10 @@
       <c r="D105" s="9">
         <v>6</v>
       </c>
-      <c r="E105" s="16">
+      <c r="E105" s="15">
         <v>6.3893549820000004</v>
       </c>
-      <c r="F105" s="16">
+      <c r="F105" s="15">
         <v>12.615</v>
       </c>
       <c r="G105" s="9">
@@ -47794,7 +47801,7 @@
       <c r="J105" s="10">
         <v>19.204999999999998</v>
       </c>
-      <c r="K105" s="17">
+      <c r="K105" s="16">
         <v>8.032636343833337</v>
       </c>
     </row>
@@ -47811,10 +47818,10 @@
       <c r="D106" s="9">
         <v>2</v>
       </c>
-      <c r="E106" s="16">
+      <c r="E106" s="15">
         <v>5.7183932039999998</v>
       </c>
-      <c r="F106" s="16">
+      <c r="F106" s="15">
         <v>8.9700000000000006</v>
       </c>
       <c r="G106" s="9">
@@ -47829,7 +47836,7 @@
       <c r="J106" s="10">
         <v>19.243333333333332</v>
       </c>
-      <c r="K106" s="17">
+      <c r="K106" s="16">
         <v>7.9694372000000087</v>
       </c>
     </row>
@@ -47846,10 +47853,10 @@
       <c r="D107" s="9">
         <v>3</v>
       </c>
-      <c r="E107" s="16">
+      <c r="E107" s="15">
         <v>6.5344685856666667</v>
       </c>
-      <c r="F107" s="16">
+      <c r="F107" s="15">
         <v>5.1637500000000003</v>
       </c>
       <c r="G107" s="9">
@@ -47864,7 +47871,7 @@
       <c r="J107" s="10">
         <v>19.208333333333332</v>
       </c>
-      <c r="K107" s="17">
+      <c r="K107" s="16">
         <v>7.9588757000000117</v>
       </c>
     </row>
@@ -47881,10 +47888,10 @@
       <c r="D108" s="9">
         <v>4</v>
       </c>
-      <c r="E108" s="16">
+      <c r="E108" s="15">
         <v>6.2854224189999996</v>
       </c>
-      <c r="F108" s="16">
+      <c r="F108" s="15">
         <v>2.5127499999999996</v>
       </c>
       <c r="G108" s="9">
@@ -47899,7 +47906,7 @@
       <c r="J108" s="10">
         <v>19.155000000000001</v>
       </c>
-      <c r="K108" s="17">
+      <c r="K108" s="16">
         <v>7.9697797650000073</v>
       </c>
     </row>
@@ -47916,10 +47923,10 @@
       <c r="D109" s="9">
         <v>3</v>
       </c>
-      <c r="E109" s="16">
+      <c r="E109" s="15">
         <v>6.9742156496666672</v>
       </c>
-      <c r="F109" s="16">
+      <c r="F109" s="15">
         <v>3.7087500000000002</v>
       </c>
       <c r="G109" s="9">
@@ -47934,7 +47941,7 @@
       <c r="J109" s="10">
         <v>19.258333333333333</v>
       </c>
-      <c r="K109" s="17">
+      <c r="K109" s="16">
         <v>10.751444119499993</v>
       </c>
     </row>
@@ -47951,10 +47958,10 @@
       <c r="D110" s="9">
         <v>3</v>
       </c>
-      <c r="E110" s="16">
+      <c r="E110" s="15">
         <v>6.9407644690000003</v>
       </c>
-      <c r="F110" s="16">
+      <c r="F110" s="15">
         <v>1.0847500000000001</v>
       </c>
       <c r="G110" s="9">
@@ -47969,7 +47976,7 @@
       <c r="J110" s="10">
         <v>19.481666666666669</v>
       </c>
-      <c r="K110" s="17">
+      <c r="K110" s="16">
         <v>14.427839329833329</v>
       </c>
     </row>
@@ -47986,10 +47993,10 @@
       <c r="D111" s="9">
         <v>3</v>
       </c>
-      <c r="E111" s="16">
+      <c r="E111" s="15">
         <v>6.8276064026666665</v>
       </c>
-      <c r="F111" s="16">
+      <c r="F111" s="15">
         <v>2.8250000000000001E-2</v>
       </c>
       <c r="G111" s="9">
@@ -48004,7 +48011,7 @@
       <c r="J111" s="10">
         <v>19.414999999999999</v>
       </c>
-      <c r="K111" s="17">
+      <c r="K111" s="16">
         <v>14.898104362833333</v>
       </c>
     </row>
@@ -48021,10 +48028,10 @@
       <c r="D112" s="9">
         <v>2</v>
       </c>
-      <c r="E112" s="16">
+      <c r="E112" s="15">
         <v>8.6532842834999997</v>
       </c>
-      <c r="F112" s="16">
+      <c r="F112" s="15">
         <v>0.85649999999999993</v>
       </c>
       <c r="G112" s="9">
@@ -48039,7 +48046,7 @@
       <c r="J112" s="10">
         <v>19.343333333333334</v>
       </c>
-      <c r="K112" s="17">
+      <c r="K112" s="16">
         <v>14.204902276333319</v>
       </c>
     </row>
@@ -48056,10 +48063,10 @@
       <c r="D113" s="9">
         <v>3</v>
       </c>
-      <c r="E113" s="16">
+      <c r="E113" s="15">
         <v>7.7631361070000002</v>
       </c>
-      <c r="F113" s="16">
+      <c r="F113" s="15">
         <v>1.7484999999999999</v>
       </c>
       <c r="G113" s="9">
@@ -48074,7 +48081,7 @@
       <c r="J113" s="10">
         <v>19.263333333333335</v>
       </c>
-      <c r="K113" s="17">
+      <c r="K113" s="16">
         <v>13.62140494949999</v>
       </c>
     </row>
@@ -48091,10 +48098,10 @@
       <c r="D114" s="9">
         <v>4</v>
       </c>
-      <c r="E114" s="16">
+      <c r="E114" s="15">
         <v>8.1992815102499996</v>
       </c>
-      <c r="F114" s="16">
+      <c r="F114" s="15">
         <v>3.0750000000000002</v>
       </c>
       <c r="G114" s="9">
@@ -48109,7 +48116,7 @@
       <c r="J114" s="10">
         <v>19.161666666666669</v>
       </c>
-      <c r="K114" s="17">
+      <c r="K114" s="16">
         <v>13.296009659999992</v>
       </c>
     </row>
@@ -48126,10 +48133,10 @@
       <c r="D115" s="9">
         <v>4</v>
       </c>
-      <c r="E115" s="16">
+      <c r="E115" s="15">
         <v>8.3475633860000009</v>
       </c>
-      <c r="F115" s="16">
+      <c r="F115" s="15">
         <v>3.8560000000000003</v>
       </c>
       <c r="G115" s="9">
@@ -48144,7 +48151,7 @@
       <c r="J115" s="10">
         <v>19.29</v>
       </c>
-      <c r="K115" s="17">
+      <c r="K115" s="16">
         <v>15.326037471833327</v>
       </c>
     </row>
@@ -48161,10 +48168,10 @@
       <c r="D116" s="9">
         <v>2</v>
       </c>
-      <c r="E116" s="16">
+      <c r="E116" s="15">
         <v>7.4962957909999997</v>
       </c>
-      <c r="F116" s="16">
+      <c r="F116" s="15">
         <v>4.5822500000000002</v>
       </c>
       <c r="G116" s="9">
@@ -48179,7 +48186,7 @@
       <c r="J116" s="10">
         <v>19.293333333333333</v>
       </c>
-      <c r="K116" s="17">
+      <c r="K116" s="16">
         <v>15.122338241333328</v>
       </c>
     </row>
@@ -48196,10 +48203,10 @@
       <c r="D117" s="9">
         <v>1</v>
       </c>
-      <c r="E117" s="16">
+      <c r="E117" s="15">
         <v>6.6534248070000004</v>
       </c>
-      <c r="F117" s="16">
+      <c r="F117" s="15">
         <v>19.78</v>
       </c>
       <c r="G117" s="9">
@@ -48214,7 +48221,7 @@
       <c r="J117" s="10">
         <v>19.413333333333334</v>
       </c>
-      <c r="K117" s="17">
+      <c r="K117" s="16">
         <v>12.887911819999992</v>
       </c>
     </row>
@@ -48231,10 +48238,10 @@
       <c r="D118" s="9">
         <v>3</v>
       </c>
-      <c r="E118" s="16">
+      <c r="E118" s="15">
         <v>7.1296813729999995</v>
       </c>
-      <c r="F118" s="16">
+      <c r="F118" s="15">
         <v>14.0175</v>
       </c>
       <c r="G118" s="9">
@@ -48249,7 +48256,7 @@
       <c r="J118" s="10">
         <v>19.613333333333333</v>
       </c>
-      <c r="K118" s="17">
+      <c r="K118" s="16">
         <v>12.375169655333329</v>
       </c>
     </row>
@@ -48266,10 +48273,10 @@
       <c r="D119" s="9">
         <v>2</v>
       </c>
-      <c r="E119" s="16">
+      <c r="E119" s="15">
         <v>7.4886705359999999</v>
       </c>
-      <c r="F119" s="16">
+      <c r="F119" s="15">
         <v>10.64</v>
       </c>
       <c r="G119" s="9">
@@ -48284,7 +48291,7 @@
       <c r="J119" s="10">
         <v>19.653333333333332</v>
       </c>
-      <c r="K119" s="17">
+      <c r="K119" s="16">
         <v>12.152624412499991</v>
       </c>
     </row>
@@ -48301,10 +48308,10 @@
       <c r="D120" s="9">
         <v>6</v>
       </c>
-      <c r="E120" s="16">
+      <c r="E120" s="15">
         <v>7.9359487143333327</v>
       </c>
-      <c r="F120" s="16">
+      <c r="F120" s="15">
         <v>9.6125000000000007</v>
       </c>
       <c r="G120" s="9">
@@ -48319,7 +48326,7 @@
       <c r="J120" s="10">
         <v>19.675000000000001</v>
       </c>
-      <c r="K120" s="17">
+      <c r="K120" s="16">
         <v>11.997496035833333</v>
       </c>
     </row>
@@ -48336,10 +48343,10 @@
       <c r="D121" s="9">
         <v>5</v>
       </c>
-      <c r="E121" s="16">
+      <c r="E121" s="15">
         <v>7.7019766551999993</v>
       </c>
-      <c r="F121" s="16">
+      <c r="F121" s="15">
         <v>7.7</v>
       </c>
       <c r="G121" s="9">
@@ -48354,7 +48361,7 @@
       <c r="J121" s="10">
         <v>19.668333333333337</v>
       </c>
-      <c r="K121" s="17">
+      <c r="K121" s="16">
         <v>11.870937873833343</v>
       </c>
     </row>
@@ -48371,10 +48378,10 @@
       <c r="D122" s="9">
         <v>5</v>
       </c>
-      <c r="E122" s="16">
+      <c r="E122" s="15">
         <v>7.773109312599999</v>
       </c>
-      <c r="F122" s="16">
+      <c r="F122" s="15">
         <v>5.1615000000000002</v>
       </c>
       <c r="G122" s="9">
@@ -48389,7 +48396,7 @@
       <c r="J122" s="10">
         <v>19.633333333333333</v>
       </c>
-      <c r="K122" s="17">
+      <c r="K122" s="16">
         <v>11.767232107500012</v>
       </c>
     </row>
@@ -48406,10 +48413,10 @@
       <c r="D123" s="9">
         <v>3</v>
       </c>
-      <c r="E123" s="16">
+      <c r="E123" s="15">
         <v>8.0711230750000009</v>
       </c>
-      <c r="F123" s="16">
+      <c r="F123" s="15">
         <v>3.4994999999999998</v>
       </c>
       <c r="G123" s="9">
@@ -48424,7 +48431,7 @@
       <c r="J123" s="10">
         <v>19.586666666666666</v>
       </c>
-      <c r="K123" s="17">
+      <c r="K123" s="16">
         <v>11.69082965150001</v>
       </c>
     </row>
@@ -48441,10 +48448,10 @@
       <c r="D124" s="9">
         <v>3</v>
       </c>
-      <c r="E124" s="16">
+      <c r="E124" s="15">
         <v>7.9005718666666667</v>
       </c>
-      <c r="F124" s="16">
+      <c r="F124" s="15">
         <v>2.3565</v>
       </c>
       <c r="G124" s="9">
@@ -48459,7 +48466,7 @@
       <c r="J124" s="10">
         <v>19.533333333333331</v>
       </c>
-      <c r="K124" s="17">
+      <c r="K124" s="16">
         <v>11.614690824166683</v>
       </c>
     </row>
@@ -48476,10 +48483,10 @@
       <c r="D125" s="9">
         <v>4</v>
       </c>
-      <c r="E125" s="16">
+      <c r="E125" s="15">
         <v>7.8026347835000003</v>
       </c>
-      <c r="F125" s="16">
+      <c r="F125" s="15">
         <v>0.55300000000000005</v>
       </c>
       <c r="G125" s="9">
@@ -48494,7 +48501,7 @@
       <c r="J125" s="10">
         <v>19.458333333333336</v>
       </c>
-      <c r="K125" s="17">
+      <c r="K125" s="16">
         <v>11.57673914933334</v>
       </c>
     </row>
@@ -48511,10 +48518,10 @@
       <c r="D126" s="9">
         <v>4</v>
       </c>
-      <c r="E126" s="16">
+      <c r="E126" s="15">
         <v>7.9696867670000007</v>
       </c>
-      <c r="F126" s="16">
+      <c r="F126" s="15">
         <v>-0.52800000000000002</v>
       </c>
       <c r="G126" s="9">
@@ -48529,7 +48536,7 @@
       <c r="J126" s="10">
         <v>19.381666666666668</v>
       </c>
-      <c r="K126" s="17">
+      <c r="K126" s="16">
         <v>11.5253463605</v>
       </c>
     </row>
@@ -48546,10 +48553,10 @@
       <c r="D127" s="9">
         <v>5</v>
       </c>
-      <c r="E127" s="16">
+      <c r="E127" s="15">
         <v>8.008401076800002</v>
       </c>
-      <c r="F127" s="16">
+      <c r="F127" s="15">
         <v>-1.24875</v>
       </c>
       <c r="G127" s="9">
@@ -48564,7 +48571,7 @@
       <c r="J127" s="10">
         <v>19.295000000000002</v>
       </c>
-      <c r="K127" s="17">
+      <c r="K127" s="16">
         <v>11.4744744</v>
       </c>
     </row>
@@ -48581,10 +48588,10 @@
       <c r="D128" s="9">
         <v>6</v>
       </c>
-      <c r="E128" s="16">
+      <c r="E128" s="15">
         <v>7.8389882015000012</v>
       </c>
-      <c r="F128" s="16">
+      <c r="F128" s="15">
         <v>-1.7055</v>
       </c>
       <c r="G128" s="9">
@@ -48599,7 +48606,7 @@
       <c r="J128" s="10">
         <v>19.204999999999998</v>
       </c>
-      <c r="K128" s="17">
+      <c r="K128" s="16">
         <v>11.412110874333342</v>
       </c>
     </row>
@@ -48616,10 +48623,10 @@
       <c r="D129" s="9">
         <v>5</v>
       </c>
-      <c r="E129" s="16">
+      <c r="E129" s="15">
         <v>7.5169101282000002</v>
       </c>
-      <c r="F129" s="16">
+      <c r="F129" s="15">
         <v>-2.3845000000000001</v>
       </c>
       <c r="G129" s="9">
@@ -48634,7 +48641,7 @@
       <c r="J129" s="10">
         <v>19.106666666666669</v>
       </c>
-      <c r="K129" s="17">
+      <c r="K129" s="16">
         <v>11.385757302666681</v>
       </c>
     </row>
@@ -48651,10 +48658,10 @@
       <c r="D130" s="9">
         <v>6</v>
       </c>
-      <c r="E130" s="16">
+      <c r="E130" s="15">
         <v>7.6060650401666665</v>
       </c>
-      <c r="F130" s="16">
+      <c r="F130" s="15">
         <v>-3.109</v>
       </c>
       <c r="G130" s="9">
@@ -48669,7 +48676,7 @@
       <c r="J130" s="10">
         <v>19.011666666666663</v>
       </c>
-      <c r="K130" s="17">
+      <c r="K130" s="16">
         <v>11.335228037500006</v>
       </c>
     </row>
@@ -48686,10 +48693,10 @@
       <c r="D131" s="9">
         <v>2</v>
       </c>
-      <c r="E131" s="16">
+      <c r="E131" s="15">
         <v>7.6560234385000001</v>
       </c>
-      <c r="F131" s="16">
+      <c r="F131" s="15">
         <v>-3.0252499999999998</v>
       </c>
       <c r="G131" s="9">
@@ -48704,7 +48711,7 @@
       <c r="J131" s="10">
         <v>18.921666666666667</v>
       </c>
-      <c r="K131" s="17">
+      <c r="K131" s="16">
         <v>11.284498594000002</v>
       </c>
     </row>
@@ -48721,10 +48728,10 @@
       <c r="D132" s="9">
         <v>5</v>
       </c>
-      <c r="E132" s="16">
+      <c r="E132" s="15">
         <v>7.6464152869999991</v>
       </c>
-      <c r="F132" s="16">
+      <c r="F132" s="15">
         <v>-2.1435</v>
       </c>
       <c r="G132" s="9">
@@ -48739,7 +48746,7 @@
       <c r="J132" s="10">
         <v>18.841666666666669</v>
       </c>
-      <c r="K132" s="17">
+      <c r="K132" s="16">
         <v>11.247138306500007</v>
       </c>
     </row>
@@ -48756,10 +48763,10 @@
       <c r="D133" s="9">
         <v>6</v>
       </c>
-      <c r="E133" s="16">
+      <c r="E133" s="15">
         <v>7.5069341406666679</v>
       </c>
-      <c r="F133" s="16">
+      <c r="F133" s="15">
         <v>-0.95899999999999996</v>
       </c>
       <c r="G133" s="9">
@@ -48774,7 +48781,7 @@
       <c r="J133" s="10">
         <v>18.773333333333333</v>
       </c>
-      <c r="K133" s="17">
+      <c r="K133" s="16">
         <v>11.183774970666672</v>
       </c>
     </row>
@@ -48791,10 +48798,10 @@
       <c r="D134" s="9">
         <v>3</v>
       </c>
-      <c r="E134" s="16">
+      <c r="E134" s="15">
         <v>7.3970014600000011</v>
       </c>
-      <c r="F134" s="16">
+      <c r="F134" s="15">
         <v>0.52174999999999994</v>
       </c>
       <c r="G134" s="9">
@@ -48809,7 +48816,7 @@
       <c r="J134" s="10">
         <v>18.733333333333331</v>
       </c>
-      <c r="K134" s="17">
+      <c r="K134" s="16">
         <v>11.122545706000002</v>
       </c>
     </row>
@@ -48826,10 +48833,10 @@
       <c r="D135" s="9">
         <v>2</v>
       </c>
-      <c r="E135" s="16">
+      <c r="E135" s="15">
         <v>6.7648938725000001</v>
       </c>
-      <c r="F135" s="16">
+      <c r="F135" s="15">
         <v>2.35825</v>
       </c>
       <c r="G135" s="9">
@@ -48844,7 +48851,7 @@
       <c r="J135" s="10">
         <v>18.716666666666669</v>
       </c>
-      <c r="K135" s="17">
+      <c r="K135" s="16">
         <v>11.048226000000005</v>
       </c>
     </row>
@@ -48861,10 +48868,10 @@
       <c r="D136" s="9">
         <v>1</v>
       </c>
-      <c r="E136" s="16">
+      <c r="E136" s="15">
         <v>7.0333331670000003</v>
       </c>
-      <c r="F136" s="16">
+      <c r="F136" s="15">
         <v>6.1342499999999998</v>
       </c>
       <c r="G136" s="9">
@@ -48879,7 +48886,7 @@
       <c r="J136" s="10">
         <v>18.734999999999999</v>
       </c>
-      <c r="K136" s="17">
+      <c r="K136" s="16">
         <v>10.950523169166669</v>
       </c>
     </row>
@@ -48896,10 +48903,10 @@
       <c r="D137" s="9">
         <v>1</v>
       </c>
-      <c r="E137" s="16">
+      <c r="E137" s="15">
         <v>6.5628731910000004</v>
       </c>
-      <c r="F137" s="16">
+      <c r="F137" s="15">
         <v>14.4</v>
       </c>
       <c r="G137" s="9">
@@ -48914,7 +48921,7 @@
       <c r="J137" s="10">
         <v>18.914999999999999</v>
       </c>
-      <c r="K137" s="17">
+      <c r="K137" s="16">
         <v>10.670743323833332</v>
       </c>
     </row>
@@ -48931,10 +48938,10 @@
       <c r="D138" s="9">
         <v>1</v>
       </c>
-      <c r="E138" s="16">
+      <c r="E138" s="15">
         <v>7.7924194130000002</v>
       </c>
-      <c r="F138" s="16">
+      <c r="F138" s="15">
         <v>23.4</v>
       </c>
       <c r="G138" s="9">
@@ -48949,7 +48956,7 @@
       <c r="J138" s="10">
         <v>19.343333333333334</v>
       </c>
-      <c r="K138" s="17">
+      <c r="K138" s="16">
         <v>10.368419649333333</v>
       </c>
     </row>
@@ -48966,10 +48973,10 @@
       <c r="D139" s="9">
         <v>6</v>
       </c>
-      <c r="E139" s="16">
+      <c r="E139" s="15">
         <v>7.6394353336666674</v>
       </c>
-      <c r="F139" s="16">
+      <c r="F139" s="15">
         <v>16.48</v>
       </c>
       <c r="G139" s="9">
@@ -48984,7 +48991,7 @@
       <c r="J139" s="10">
         <v>19.536666666666669</v>
       </c>
-      <c r="K139" s="17">
+      <c r="K139" s="16">
         <v>10.261487373833333</v>
       </c>
     </row>
@@ -49001,10 +49008,10 @@
       <c r="D140" s="9">
         <v>3</v>
       </c>
-      <c r="E140" s="16">
+      <c r="E140" s="15">
         <v>7.5129618456666671</v>
       </c>
-      <c r="F140" s="16">
+      <c r="F140" s="15">
         <v>11.7875</v>
       </c>
       <c r="G140" s="9">
@@ -49019,7 +49026,7 @@
       <c r="J140" s="10">
         <v>19.618333333333332</v>
       </c>
-      <c r="K140" s="17">
+      <c r="K140" s="16">
         <v>10.176761745999992</v>
       </c>
     </row>
@@ -49036,10 +49043,10 @@
       <c r="D141" s="9">
         <v>7</v>
       </c>
-      <c r="E141" s="16">
+      <c r="E141" s="15">
         <v>7.9300211408571428</v>
       </c>
-      <c r="F141" s="16">
+      <c r="F141" s="15">
         <v>9.8375000000000004</v>
       </c>
       <c r="G141" s="9">
@@ -49054,7 +49061,7 @@
       <c r="J141" s="10">
         <v>19.648333333333333</v>
       </c>
-      <c r="K141" s="17">
+      <c r="K141" s="16">
         <v>10.142820922333325</v>
       </c>
     </row>
@@ -49071,10 +49078,10 @@
       <c r="D142" s="9">
         <v>1</v>
       </c>
-      <c r="E142" s="16">
+      <c r="E142" s="15">
         <v>7.9379464190000002</v>
       </c>
-      <c r="F142" s="16">
+      <c r="F142" s="15">
         <v>11.692500000000001</v>
       </c>
       <c r="G142" s="9">
@@ -49089,7 +49096,7 @@
       <c r="J142" s="10">
         <v>19.721666666666668</v>
       </c>
-      <c r="K142" s="17">
+      <c r="K142" s="16">
         <v>10.047917669000004</v>
       </c>
     </row>
@@ -49106,10 +49113,10 @@
       <c r="D143" s="9">
         <v>3</v>
       </c>
-      <c r="E143" s="16">
+      <c r="E143" s="15">
         <v>8.6963456753333332</v>
       </c>
-      <c r="F143" s="16">
+      <c r="F143" s="15">
         <v>8.150500000000001</v>
       </c>
       <c r="G143" s="9">
@@ -49124,7 +49131,7 @@
       <c r="J143" s="10">
         <v>19.73</v>
       </c>
-      <c r="K143" s="17">
+      <c r="K143" s="16">
         <v>10.012809607500003</v>
       </c>
     </row>
@@ -49141,10 +49148,10 @@
       <c r="D144" s="9">
         <v>3</v>
       </c>
-      <c r="E144" s="16">
+      <c r="E144" s="15">
         <v>8.2669711403333341</v>
       </c>
-      <c r="F144" s="16">
+      <c r="F144" s="15">
         <v>6.2030000000000003</v>
       </c>
       <c r="G144" s="9">
@@ -49159,7 +49166,7 @@
       <c r="J144" s="10">
         <v>19.706666666666667</v>
       </c>
-      <c r="K144" s="17">
+      <c r="K144" s="16">
         <v>9.9898240810000001</v>
       </c>
     </row>
@@ -49176,10 +49183,10 @@
       <c r="D145" s="9">
         <v>7</v>
       </c>
-      <c r="E145" s="16">
+      <c r="E145" s="15">
         <v>7.7160143152857135</v>
       </c>
-      <c r="F145" s="16">
+      <c r="F145" s="15">
         <v>2.7450000000000001</v>
       </c>
       <c r="G145" s="9">
@@ -49194,7 +49201,7 @@
       <c r="J145" s="10">
         <v>19.653333333333332</v>
       </c>
-      <c r="K145" s="17">
+      <c r="K145" s="16">
         <v>10.000587707500003</v>
       </c>
     </row>
@@ -49211,10 +49218,10 @@
       <c r="D146" s="9">
         <v>7</v>
       </c>
-      <c r="E146" s="16">
+      <c r="E146" s="15">
         <v>7.52896302</v>
       </c>
-      <c r="F146" s="16">
+      <c r="F146" s="15">
         <v>-0.19650000000000001</v>
       </c>
       <c r="G146" s="9">
@@ -49229,7 +49236,7 @@
       <c r="J146" s="10">
         <v>19.566666666666666</v>
       </c>
-      <c r="K146" s="17">
+      <c r="K146" s="16">
         <v>10.035795134000006</v>
       </c>
     </row>
@@ -49246,10 +49253,10 @@
       <c r="D147" s="9">
         <v>5</v>
       </c>
-      <c r="E147" s="16">
+      <c r="E147" s="15">
         <v>7.7108799935999999</v>
       </c>
-      <c r="F147" s="16">
+      <c r="F147" s="15">
         <v>-1.7767499999999998</v>
       </c>
       <c r="G147" s="9">
@@ -49264,7 +49271,7 @@
       <c r="J147" s="10">
         <v>19.491666666666667</v>
       </c>
-      <c r="K147" s="17">
+      <c r="K147" s="16">
         <v>10.060040204000003</v>
       </c>
     </row>
@@ -49281,10 +49288,10 @@
       <c r="D148" s="9">
         <v>5</v>
       </c>
-      <c r="E148" s="16">
+      <c r="E148" s="15">
         <v>7.5261492477999994</v>
       </c>
-      <c r="F148" s="16">
+      <c r="F148" s="15">
         <v>-2.9962499999999999</v>
       </c>
       <c r="G148" s="9">
@@ -49299,7 +49306,7 @@
       <c r="J148" s="10">
         <v>19.395</v>
       </c>
-      <c r="K148" s="17">
+      <c r="K148" s="16">
         <v>10.060040204000003</v>
       </c>
     </row>
@@ -49316,10 +49323,10 @@
       <c r="D149" s="9">
         <v>1</v>
       </c>
-      <c r="E149" s="16">
+      <c r="E149" s="15">
         <v>7.8932760110000002</v>
       </c>
-      <c r="F149" s="16">
+      <c r="F149" s="15">
         <v>-3.6595</v>
       </c>
       <c r="G149" s="9">
@@ -49334,7 +49341,7 @@
       <c r="J149" s="10">
         <v>19.286666666666669</v>
       </c>
-      <c r="K149" s="17">
+      <c r="K149" s="16">
         <v>10.081623759000001</v>
       </c>
     </row>
@@ -49351,10 +49358,10 @@
       <c r="D150" s="9">
         <v>1</v>
       </c>
-      <c r="E150" s="16">
+      <c r="E150" s="15">
         <v>8.6110933680000006</v>
       </c>
-      <c r="F150" s="16">
+      <c r="F150" s="15">
         <v>-4.0647500000000001</v>
       </c>
       <c r="G150" s="9">
@@ -49369,7 +49376,7 @@
       <c r="J150" s="10">
         <v>19.18</v>
       </c>
-      <c r="K150" s="17">
+      <c r="K150" s="16">
         <v>10.081623759000001</v>
       </c>
     </row>
@@ -49386,10 +49393,10 @@
       <c r="D151" s="9">
         <v>2</v>
       </c>
-      <c r="E151" s="16">
+      <c r="E151" s="15">
         <v>7.4050613670000001</v>
       </c>
-      <c r="F151" s="16">
+      <c r="F151" s="15">
         <v>-4.5774999999999997</v>
       </c>
       <c r="G151" s="9">
@@ -49404,7 +49411,7 @@
       <c r="J151" s="10">
         <v>18.97</v>
       </c>
-      <c r="K151" s="17">
+      <c r="K151" s="16">
         <v>10.057378689000004</v>
       </c>
     </row>
@@ -49421,10 +49428,10 @@
       <c r="D152" s="9">
         <v>4</v>
       </c>
-      <c r="E152" s="16">
+      <c r="E152" s="15">
         <v>7.2934564159999997</v>
       </c>
-      <c r="F152" s="16">
+      <c r="F152" s="15">
         <v>-5.0169999999999995</v>
       </c>
       <c r="G152" s="9">
@@ -49439,7 +49446,7 @@
       <c r="J152" s="10">
         <v>18.86</v>
       </c>
-      <c r="K152" s="17">
+      <c r="K152" s="16">
         <v>10.057378689000004</v>
       </c>
     </row>
@@ -49456,10 +49463,10 @@
       <c r="D153" s="9">
         <v>1</v>
       </c>
-      <c r="E153" s="16">
+      <c r="E153" s="15">
         <v>7.0098691779999998</v>
       </c>
-      <c r="F153" s="16">
+      <c r="F153" s="15">
         <v>-5.1654999999999998</v>
       </c>
       <c r="G153" s="9">
@@ -49474,7 +49481,7 @@
       <c r="J153" s="10">
         <v>18.751666666666665</v>
       </c>
-      <c r="K153" s="17">
+      <c r="K153" s="16">
         <v>10.057378689000004</v>
       </c>
     </row>
@@ -49491,10 +49498,10 @@
       <c r="D154" s="9">
         <v>7</v>
       </c>
-      <c r="E154" s="16">
+      <c r="E154" s="15">
         <v>7.3092773838571432</v>
       </c>
-      <c r="F154" s="16">
+      <c r="F154" s="15">
         <v>-0.5242500000000001</v>
       </c>
       <c r="G154" s="9">
@@ -49509,7 +49516,7 @@
       <c r="J154" s="10">
         <v>18.613333333333337</v>
       </c>
-      <c r="K154" s="17">
+      <c r="K154" s="16">
         <v>9.999292929000001</v>
       </c>
     </row>
@@ -49526,10 +49533,10 @@
       <c r="D155" s="9">
         <v>4</v>
       </c>
-      <c r="E155" s="16">
+      <c r="E155" s="15">
         <v>6.9016509997500002</v>
       </c>
-      <c r="F155" s="16">
+      <c r="F155" s="15">
         <v>5.2285000000000004</v>
       </c>
       <c r="G155" s="9">
@@ -49544,7 +49551,7 @@
       <c r="J155" s="10">
         <v>18.625</v>
       </c>
-      <c r="K155" s="17">
+      <c r="K155" s="16">
         <v>9.9066185121666592</v>
       </c>
     </row>
@@ -49561,10 +49568,10 @@
       <c r="D156" s="9">
         <v>2</v>
       </c>
-      <c r="E156" s="16">
+      <c r="E156" s="15">
         <v>6.863727506</v>
       </c>
-      <c r="F156" s="16">
+      <c r="F156" s="15">
         <v>10.01</v>
       </c>
       <c r="G156" s="9">
@@ -49579,7 +49586,7 @@
       <c r="J156" s="10">
         <v>18.696666666666665</v>
       </c>
-      <c r="K156" s="17">
+      <c r="K156" s="16">
         <v>9.791673942500001</v>
       </c>
     </row>
@@ -49596,10 +49603,10 @@
       <c r="D157" s="9">
         <v>1</v>
       </c>
-      <c r="E157" s="16">
+      <c r="E157" s="15">
         <v>5.5773523919999999</v>
       </c>
-      <c r="F157" s="16">
+      <c r="F157" s="15">
         <v>17.897500000000001</v>
       </c>
       <c r="G157" s="9">
@@ -49614,7 +49621,7 @@
       <c r="J157" s="10">
         <v>19.821666666666665</v>
       </c>
-      <c r="K157" s="17">
+      <c r="K157" s="16">
         <v>9.1205573988333377</v>
       </c>
     </row>
@@ -49631,10 +49638,10 @@
       <c r="D158" s="9">
         <v>3</v>
       </c>
-      <c r="E158" s="16">
+      <c r="E158" s="15">
         <v>7.4213962480000006</v>
       </c>
-      <c r="F158" s="16">
+      <c r="F158" s="15">
         <v>14.55</v>
       </c>
       <c r="G158" s="9">
@@ -49649,7 +49656,7 @@
       <c r="J158" s="10">
         <v>19.976666666666667</v>
       </c>
-      <c r="K158" s="17">
+      <c r="K158" s="16">
         <v>9.0311976725000047</v>
       </c>
     </row>
@@ -49666,10 +49673,10 @@
       <c r="D159" s="9">
         <v>5</v>
       </c>
-      <c r="E159" s="16">
+      <c r="E159" s="15">
         <v>7.3941807286000003</v>
       </c>
-      <c r="F159" s="16">
+      <c r="F159" s="15">
         <v>10.4025</v>
       </c>
       <c r="G159" s="9">
@@ -49684,7 +49691,7 @@
       <c r="J159" s="10">
         <v>20.010000000000002</v>
       </c>
-      <c r="K159" s="17">
+      <c r="K159" s="16">
         <v>8.9864606906666662</v>
       </c>
     </row>
@@ -49701,10 +49708,10 @@
       <c r="D160" s="9">
         <v>4</v>
       </c>
-      <c r="E160" s="16">
+      <c r="E160" s="15">
         <v>7.0098351280000006</v>
       </c>
-      <c r="F160" s="16">
+      <c r="F160" s="15">
         <v>7.5677500000000002</v>
       </c>
       <c r="G160" s="9">
@@ -49719,7 +49726,7 @@
       <c r="J160" s="10">
         <v>20</v>
       </c>
-      <c r="K160" s="17">
+      <c r="K160" s="16">
         <v>8.9657216656666687</v>
       </c>
     </row>
@@ -49736,10 +49743,10 @@
       <c r="D161" s="9">
         <v>5</v>
       </c>
-      <c r="E161" s="16">
+      <c r="E161" s="15">
         <v>7.0991780160000006</v>
       </c>
-      <c r="F161" s="16">
+      <c r="F161" s="15">
         <v>5.7204999999999995</v>
       </c>
       <c r="G161" s="9">
@@ -49754,7 +49761,7 @@
       <c r="J161" s="10">
         <v>20.001666666666665</v>
       </c>
-      <c r="K161" s="17">
+      <c r="K161" s="16">
         <v>8.8624957320833389</v>
       </c>
     </row>
@@ -49771,10 +49778,10 @@
       <c r="D162" s="9">
         <v>7</v>
       </c>
-      <c r="E162" s="16">
+      <c r="E162" s="15">
         <v>7.2113698681428575</v>
       </c>
-      <c r="F162" s="16">
+      <c r="F162" s="15">
         <v>5.5274999999999999</v>
       </c>
       <c r="G162" s="9">
@@ -49789,7 +49796,7 @@
       <c r="J162" s="10">
         <v>19.991666666666667</v>
       </c>
-      <c r="K162" s="17">
+      <c r="K162" s="16">
         <v>8.9426219990000053</v>
       </c>
     </row>
@@ -49806,10 +49813,10 @@
       <c r="D163" s="9">
         <v>2</v>
       </c>
-      <c r="E163" s="16">
+      <c r="E163" s="15">
         <v>7.2068083124999998</v>
       </c>
-      <c r="F163" s="16">
+      <c r="F163" s="15">
         <v>4.2969999999999997</v>
       </c>
       <c r="G163" s="9">
@@ -49824,7 +49831,7 @@
       <c r="J163" s="10">
         <v>19.946666666666665</v>
       </c>
-      <c r="K163" s="17">
+      <c r="K163" s="16">
         <v>8.8509458987500054</v>
       </c>
     </row>
@@ -49841,10 +49848,10 @@
       <c r="D164" s="9">
         <v>3</v>
       </c>
-      <c r="E164" s="16">
+      <c r="E164" s="15">
         <v>6.388727534</v>
       </c>
-      <c r="F164" s="16">
+      <c r="F164" s="15">
         <v>3.5439999999999996</v>
       </c>
       <c r="G164" s="9">
@@ -49859,7 +49866,7 @@
       <c r="J164" s="10">
         <v>19.878333333333334</v>
       </c>
-      <c r="K164" s="17">
+      <c r="K164" s="16">
         <v>8.9426219990000053</v>
       </c>
     </row>
@@ -49876,10 +49883,10 @@
       <c r="D165" s="9">
         <v>3</v>
       </c>
-      <c r="E165" s="16">
+      <c r="E165" s="15">
         <v>7.1399563923333345</v>
       </c>
-      <c r="F165" s="16">
+      <c r="F165" s="15">
         <v>4.0764999999999993</v>
       </c>
       <c r="G165" s="9">
@@ -49894,7 +49901,7 @@
       <c r="J165" s="10">
         <v>19.846666666666664</v>
       </c>
-      <c r="K165" s="17">
+      <c r="K165" s="16">
         <v>8.9426219990000053</v>
       </c>
     </row>
@@ -49911,10 +49918,10 @@
       <c r="D166" s="9">
         <v>1</v>
       </c>
-      <c r="E166" s="16">
+      <c r="E166" s="15">
         <v>8.3619476420000005</v>
       </c>
-      <c r="F166" s="16">
+      <c r="F166" s="15">
         <v>4.2452500000000004</v>
       </c>
       <c r="G166" s="9">
@@ -49929,7 +49936,7 @@
       <c r="J166" s="10">
         <v>19.815000000000001</v>
       </c>
-      <c r="K166" s="17">
+      <c r="K166" s="16">
         <v>8.9426219990000053</v>
       </c>
     </row>
@@ -49946,10 +49953,10 @@
       <c r="D167" s="9">
         <v>1</v>
       </c>
-      <c r="E167" s="16">
+      <c r="E167" s="15">
         <v>8.8969890750000005</v>
       </c>
-      <c r="F167" s="16">
+      <c r="F167" s="15">
         <v>3.4282500000000002</v>
       </c>
       <c r="G167" s="9">
@@ -49964,7 +49971,7 @@
       <c r="J167" s="10">
         <v>19.77</v>
       </c>
-      <c r="K167" s="17">
+      <c r="K167" s="16">
         <v>8.9657216656666687</v>
       </c>
     </row>
@@ -49981,10 +49988,10 @@
       <c r="D168" s="9">
         <v>3</v>
       </c>
-      <c r="E168" s="16">
+      <c r="E168" s="15">
         <v>7.9746748536666665</v>
       </c>
-      <c r="F168" s="16">
+      <c r="F168" s="15">
         <v>2.6612499999999999</v>
       </c>
       <c r="G168" s="9">
@@ -49999,7 +50006,7 @@
       <c r="J168" s="10">
         <v>19.733333333333331</v>
       </c>
-      <c r="K168" s="17">
+      <c r="K168" s="16">
         <v>8.9657216656666687</v>
       </c>
     </row>
@@ -50016,10 +50023,10 @@
       <c r="D169" s="9">
         <v>1</v>
       </c>
-      <c r="E169" s="16">
+      <c r="E169" s="15">
         <v>8.0352887000000006</v>
       </c>
-      <c r="F169" s="16">
+      <c r="F169" s="15">
         <v>1.4795</v>
       </c>
       <c r="G169" s="9">
@@ -50034,7 +50041,7 @@
       <c r="J169" s="10">
         <v>19.688333333333333</v>
       </c>
-      <c r="K169" s="17">
+      <c r="K169" s="16">
         <v>8.9864606906666662</v>
       </c>
     </row>
@@ -50051,10 +50058,10 @@
       <c r="D170" s="9">
         <v>2</v>
       </c>
-      <c r="E170" s="16">
+      <c r="E170" s="15">
         <v>7.4902509635000003</v>
       </c>
-      <c r="F170" s="16">
+      <c r="F170" s="15">
         <v>4.7462499999999999</v>
       </c>
       <c r="G170" s="9">
@@ -50069,7 +50076,7 @@
       <c r="J170" s="10">
         <v>19.53</v>
       </c>
-      <c r="K170" s="17">
+      <c r="K170" s="16">
         <v>8.8624957320833389</v>
       </c>
     </row>
@@ -50086,10 +50093,10 @@
       <c r="D171" s="9">
         <v>2</v>
       </c>
-      <c r="E171" s="16">
+      <c r="E171" s="15">
         <v>6.3892771894999996</v>
       </c>
-      <c r="F171" s="16">
+      <c r="F171" s="15">
         <v>8.6425000000000001</v>
       </c>
       <c r="G171" s="9">
@@ -50104,7 +50111,7 @@
       <c r="J171" s="10">
         <v>19.558333333333334</v>
       </c>
-      <c r="K171" s="17">
+      <c r="K171" s="16">
         <v>8.8882360660000046</v>
       </c>
     </row>
@@ -50121,10 +50128,10 @@
       <c r="D172" s="9">
         <v>2</v>
       </c>
-      <c r="E172" s="16">
+      <c r="E172" s="15">
         <v>6.9884057055</v>
       </c>
-      <c r="F172" s="16">
+      <c r="F172" s="15">
         <v>9.0649999999999995</v>
       </c>
       <c r="G172" s="9">
@@ -50139,7 +50146,7 @@
       <c r="J172" s="10">
         <v>19.613333333333337</v>
       </c>
-      <c r="K172" s="17">
+      <c r="K172" s="16">
         <v>8.7364762678333356</v>
       </c>
     </row>
@@ -50156,10 +50163,10 @@
       <c r="D173" s="9">
         <v>1</v>
       </c>
-      <c r="E173" s="16">
+      <c r="E173" s="15">
         <v>5.0693018759999999</v>
       </c>
-      <c r="F173" s="16">
+      <c r="F173" s="15">
         <v>7.2495000000000003</v>
       </c>
       <c r="G173" s="9">
@@ -50174,7 +50181,7 @@
       <c r="J173" s="10">
         <v>19.655000000000001</v>
       </c>
-      <c r="K173" s="17">
+      <c r="K173" s="16">
         <v>8.7100382570833368</v>
       </c>
     </row>
@@ -50191,10 +50198,10 @@
       <c r="D174" s="9">
         <v>1</v>
       </c>
-      <c r="E174" s="16">
+      <c r="E174" s="15">
         <v>5.9098679030000003</v>
       </c>
-      <c r="F174" s="16">
+      <c r="F174" s="15">
         <v>15.925000000000001</v>
       </c>
       <c r="G174" s="9">
@@ -50209,7 +50216,7 @@
       <c r="J174" s="10">
         <v>19.868333333333332</v>
       </c>
-      <c r="K174" s="17">
+      <c r="K174" s="16">
         <v>8.5609023425000004</v>
       </c>
     </row>
@@ -50226,10 +50233,10 @@
       <c r="D175" s="9">
         <v>1</v>
       </c>
-      <c r="E175" s="16">
+      <c r="E175" s="15">
         <v>5.6860359919999999</v>
       </c>
-      <c r="F175" s="16">
+      <c r="F175" s="15">
         <v>10.8575</v>
       </c>
       <c r="G175" s="9">
@@ -50244,7 +50251,7 @@
       <c r="J175" s="10">
         <v>20.13</v>
       </c>
-      <c r="K175" s="17">
+      <c r="K175" s="16">
         <v>8.3463221358333364</v>
       </c>
     </row>
@@ -50261,10 +50268,10 @@
       <c r="D176" s="9">
         <v>5</v>
       </c>
-      <c r="E176" s="16">
+      <c r="E176" s="15">
         <v>7.1424546824000004</v>
       </c>
-      <c r="F176" s="16">
+      <c r="F176" s="15">
         <v>9.9250000000000007</v>
       </c>
       <c r="G176" s="9">
@@ -50279,7 +50286,7 @@
       <c r="J176" s="10">
         <v>20.181666666666665</v>
       </c>
-      <c r="K176" s="17">
+      <c r="K176" s="16">
         <v>8.2611448289999991</v>
       </c>
     </row>
@@ -50296,10 +50303,10 @@
       <c r="D177" s="9">
         <v>7</v>
       </c>
-      <c r="E177" s="16">
+      <c r="E177" s="15">
         <v>7.3001036008571427</v>
       </c>
-      <c r="F177" s="16">
+      <c r="F177" s="15">
         <v>7.5277500000000002</v>
       </c>
       <c r="G177" s="9">
@@ -50314,7 +50321,7 @@
       <c r="J177" s="10">
         <v>20.201666666666668</v>
       </c>
-      <c r="K177" s="17">
+      <c r="K177" s="16">
         <v>8.2290527108333293</v>
       </c>
     </row>
@@ -50331,10 +50338,10 @@
       <c r="D178" s="9">
         <v>5</v>
       </c>
-      <c r="E178" s="16">
+      <c r="E178" s="15">
         <v>7.4827612885999999</v>
       </c>
-      <c r="F178" s="16">
+      <c r="F178" s="15">
         <v>5.0987499999999999</v>
       </c>
       <c r="G178" s="9">
@@ -50349,7 +50356,7 @@
       <c r="J178" s="10">
         <v>20.18333333333333</v>
       </c>
-      <c r="K178" s="17">
+      <c r="K178" s="16">
         <v>8.2079964926666609</v>
       </c>
     </row>
@@ -50366,10 +50373,10 @@
       <c r="D179" s="9">
         <v>4</v>
       </c>
-      <c r="E179" s="16">
+      <c r="E179" s="15">
         <v>7.1864943912499992</v>
       </c>
-      <c r="F179" s="16">
+      <c r="F179" s="15">
         <v>3.0732500000000003</v>
       </c>
       <c r="G179" s="9">
@@ -50384,7 +50391,7 @@
       <c r="J179" s="10">
         <v>20.135000000000002</v>
       </c>
-      <c r="K179" s="17">
+      <c r="K179" s="16">
         <v>8.2079964926666609</v>
       </c>
     </row>
@@ -50401,10 +50408,10 @@
       <c r="D180" s="9">
         <v>7</v>
       </c>
-      <c r="E180" s="16">
+      <c r="E180" s="15">
         <v>7.3295165961428568</v>
       </c>
-      <c r="F180" s="16">
+      <c r="F180" s="15">
         <v>0.97425000000000006</v>
       </c>
       <c r="G180" s="9">
@@ -50419,7 +50426,7 @@
       <c r="J180" s="10">
         <v>20.07</v>
       </c>
-      <c r="K180" s="17">
+      <c r="K180" s="16">
         <v>8.2079964926666609</v>
       </c>
     </row>
@@ -50436,10 +50443,10 @@
       <c r="D181" s="9">
         <v>6</v>
       </c>
-      <c r="E181" s="16">
+      <c r="E181" s="15">
         <v>7.1642669284999982</v>
       </c>
-      <c r="F181" s="16">
+      <c r="F181" s="15">
         <v>-0.878</v>
       </c>
       <c r="G181" s="9">
@@ -50454,7 +50461,7 @@
       <c r="J181" s="10">
         <v>19.981666666666669</v>
       </c>
-      <c r="K181" s="17">
+      <c r="K181" s="16">
         <v>8.2392231741666713</v>
       </c>
     </row>
@@ -50471,10 +50478,10 @@
       <c r="D182" s="9">
         <v>3</v>
       </c>
-      <c r="E182" s="16">
+      <c r="E182" s="15">
         <v>7.4379202343333333</v>
       </c>
-      <c r="F182" s="16">
+      <c r="F182" s="15">
         <v>-2.0382500000000001</v>
       </c>
       <c r="G182" s="9">
@@ -50489,7 +50496,7 @@
       <c r="J182" s="10">
         <v>19.891666666666666</v>
       </c>
-      <c r="K182" s="17">
+      <c r="K182" s="16">
         <v>8.2492830256666707</v>
       </c>
     </row>
